--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15939.15850488914</v>
+        <v>124258.0162093943</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21132912.79784803</v>
+        <v>21118222.51054864</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4095267.47322018</v>
+        <v>4095980.01437152</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>56.37586062903345</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>17.77556708637185</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="G12" t="n">
-        <v>56.37586062903345</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.60029354266159</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>92.6649492891022</v>
+        <v>56.37586062903345</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="V14" t="n">
-        <v>81.61928733384123</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>35.61136258595533</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>20.76449804307808</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>81.61928733384123</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1858,61 +1858,61 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>92.6649492891022</v>
+      </c>
+      <c r="V17" t="n">
+        <v>92.6649492891022</v>
+      </c>
+      <c r="W17" t="n">
+        <v>92.6649492891022</v>
+      </c>
+      <c r="X17" t="n">
         <v>81.61928733384123</v>
       </c>
-      <c r="H17" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>92.6649492891022</v>
-      </c>
       <c r="Y17" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.37201941954103</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1967,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R18" t="n">
-        <v>81.61928733384123</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S18" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,55 +2095,55 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>24.91528667358037</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>56.70400066026085</v>
-      </c>
-      <c r="T20" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>33.42924826805081</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.84730027516773</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W21" t="n">
-        <v>92.6649492891022</v>
+        <v>75.37201941954103</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>19.83353858518316</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>97.80899837438143</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>85.72887202374272</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="V23" t="n">
-        <v>97.33069030851809</v>
+        <v>74.01642061605187</v>
       </c>
       <c r="W23" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>32.94415618079528</v>
+        <v>6.361719200771704</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2441,25 +2441,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.12250269561245</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.66221314733495</v>
+        <v>83.39434727764331</v>
       </c>
       <c r="S24" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="W24" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.9951433092430996</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>89.75606647841501</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>85.72887202374272</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.361719200771704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2678,25 +2678,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.12250269561245</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.39434727764331</v>
       </c>
       <c r="S27" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>72.60636932813021</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.9951433092430996</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.72421471466629</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.00465730907622</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>89.75606647841501</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
     </row>
     <row r="30">
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>39.66221314733495</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>32.94415618079528</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2915,25 +2915,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.12250269561245</v>
+        <v>11.92673027430385</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.39434727764331</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>97.33069030851809</v>
+        <v>96.33788002366931</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.9951433092430996</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>89.75606647841501</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="W32" t="n">
-        <v>85.72887202374272</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.13944279369422</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>97.33069030851809</v>
+        <v>89.75606647841504</v>
       </c>
       <c r="H33" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>32.94415618079528</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.97596335777129</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.9951433092430996</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>97.33069030851809</v>
+        <v>74.01642061605187</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>19.83353858518316</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>97.80899837438143</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="T35" t="n">
-        <v>85.72887202374272</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>72.60636932813026</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.12250269561245</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>89.75606647841504</v>
       </c>
     </row>
     <row r="37">
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.9951433092430996</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>89.75606647841504</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>85.72887202374272</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>32.94415618079528</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3626,25 +3626,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.12250269561245</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.97596335777129</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="V39" t="n">
-        <v>53.01694009808175</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="W39" t="n">
-        <v>97.33069030851809</v>
+        <v>89.75606647841504</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.9951433092430996</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="C41" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="E41" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.75606647841501</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>85.72887202374272</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>85.72887202374268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="W42" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>89.75606647841504</v>
       </c>
     </row>
     <row r="43">
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.9951433092430996</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>85.72887202374268</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>97.80899837438143</v>
       </c>
       <c r="S44" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>93.84995920123507</v>
       </c>
       <c r="U44" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4058,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>85.72887202374272</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>97.33069030851809</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>89.75606647841504</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.9951433092430996</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.06573707542285</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="C11" t="n">
-        <v>62.06573707542285</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="D11" t="n">
-        <v>62.06573707542285</v>
+        <v>191.3693559825538</v>
       </c>
       <c r="E11" t="n">
-        <v>62.06573707542285</v>
+        <v>126.7175465289883</v>
       </c>
       <c r="F11" t="n">
-        <v>62.06573707542285</v>
+        <v>126.7175465289883</v>
       </c>
       <c r="G11" t="n">
-        <v>5.120423308722386</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="H11" t="n">
         <v>5.120423308722386</v>
@@ -5044,10 +5044,10 @@
         <v>5.120423308722386</v>
       </c>
       <c r="K11" t="n">
-        <v>7.050050693765789</v>
+        <v>7.050050693765819</v>
       </c>
       <c r="L11" t="n">
-        <v>46.34568595217664</v>
+        <v>46.34568595217663</v>
       </c>
       <c r="M11" t="n">
         <v>109.7109243976162</v>
@@ -5071,22 +5071,22 @@
         <v>256.0211654361193</v>
       </c>
       <c r="T11" t="n">
-        <v>191.3693559825538</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="U11" t="n">
-        <v>191.3693559825538</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="V11" t="n">
-        <v>126.7175465289883</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="W11" t="n">
-        <v>62.06573707542285</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="X11" t="n">
-        <v>62.06573707542285</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="Y11" t="n">
-        <v>62.06573707542285</v>
+        <v>256.0211654361193</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.06573707542285</v>
+        <v>191.3693559825538</v>
       </c>
       <c r="C12" t="n">
-        <v>62.06573707542285</v>
+        <v>191.3693559825538</v>
       </c>
       <c r="D12" t="n">
-        <v>62.06573707542285</v>
+        <v>126.7175465289883</v>
       </c>
       <c r="E12" t="n">
-        <v>62.06573707542285</v>
+        <v>108.7624282599259</v>
       </c>
       <c r="F12" t="n">
-        <v>62.06573707542285</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="G12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="H12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="I12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="J12" t="n">
         <v>5.120423308722386</v>
@@ -5126,16 +5126,16 @@
         <v>5.120423308722386</v>
       </c>
       <c r="L12" t="n">
-        <v>22.00098250561112</v>
+        <v>68.48566175416191</v>
       </c>
       <c r="M12" t="n">
-        <v>85.36622095105065</v>
+        <v>131.8509001996014</v>
       </c>
       <c r="N12" t="n">
-        <v>148.7314593964902</v>
+        <v>195.216138645041</v>
       </c>
       <c r="O12" t="n">
-        <v>212.0966978419297</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="P12" t="n">
         <v>256.0211654361193</v>
@@ -5153,19 +5153,19 @@
         <v>256.0211654361193</v>
       </c>
       <c r="U12" t="n">
-        <v>191.3693559825538</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="V12" t="n">
-        <v>126.7175465289883</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="W12" t="n">
-        <v>62.06573707542285</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="X12" t="n">
-        <v>62.06573707542285</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.06573707542285</v>
+        <v>256.0211654361193</v>
       </c>
     </row>
     <row r="13">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.0141548210092</v>
+        <v>126.7175465289883</v>
       </c>
       <c r="C14" t="n">
-        <v>101.0141548210092</v>
+        <v>62.06573707542285</v>
       </c>
       <c r="D14" t="n">
-        <v>101.0141548210092</v>
+        <v>62.06573707542285</v>
       </c>
       <c r="E14" t="n">
-        <v>101.0141548210092</v>
+        <v>62.06573707542285</v>
       </c>
       <c r="F14" t="n">
-        <v>101.0141548210092</v>
+        <v>62.06573707542285</v>
       </c>
       <c r="G14" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="H14" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="I14" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="J14" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="K14" t="n">
-        <v>21.18357364821451</v>
+        <v>7.050050693765789</v>
       </c>
       <c r="L14" t="n">
-        <v>75.16870670940366</v>
+        <v>46.3456859521766</v>
       </c>
       <c r="M14" t="n">
-        <v>166.9070065056148</v>
+        <v>109.7109243976161</v>
       </c>
       <c r="N14" t="n">
-        <v>258.6453063018261</v>
+        <v>173.0761628430557</v>
       </c>
       <c r="O14" t="n">
-        <v>337.6943058037292</v>
+        <v>236.4414012884952</v>
       </c>
       <c r="P14" t="n">
-        <v>370.6597971564088</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.6597971564088</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="R14" t="n">
-        <v>277.0588382785278</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="S14" t="n">
-        <v>277.0588382785278</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="T14" t="n">
-        <v>183.4578794006468</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="U14" t="n">
-        <v>183.4578794006468</v>
+        <v>191.3693559825538</v>
       </c>
       <c r="V14" t="n">
-        <v>101.0141548210092</v>
+        <v>126.7175465289883</v>
       </c>
       <c r="W14" t="n">
-        <v>101.0141548210092</v>
+        <v>126.7175465289883</v>
       </c>
       <c r="X14" t="n">
-        <v>101.0141548210092</v>
+        <v>126.7175465289883</v>
       </c>
       <c r="Y14" t="n">
-        <v>101.0141548210092</v>
+        <v>126.7175465289883</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>194.6151136988902</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="C15" t="n">
-        <v>194.6151136988902</v>
+        <v>41.09149662786919</v>
       </c>
       <c r="D15" t="n">
-        <v>194.6151136988902</v>
+        <v>41.09149662786919</v>
       </c>
       <c r="E15" t="n">
-        <v>194.6151136988902</v>
+        <v>41.09149662786919</v>
       </c>
       <c r="F15" t="n">
-        <v>101.0141548210092</v>
+        <v>41.09149662786919</v>
       </c>
       <c r="G15" t="n">
-        <v>7.413195943128176</v>
+        <v>41.09149662786919</v>
       </c>
       <c r="H15" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="I15" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="J15" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="K15" t="n">
-        <v>28.29609765201163</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="L15" t="n">
-        <v>102.6982772648967</v>
+        <v>68.48566175416191</v>
       </c>
       <c r="M15" t="n">
-        <v>188.2547349610496</v>
+        <v>131.8509001996014</v>
       </c>
       <c r="N15" t="n">
-        <v>279.9930347572608</v>
+        <v>195.216138645041</v>
       </c>
       <c r="O15" t="n">
-        <v>370.6597971564088</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="P15" t="n">
-        <v>370.6597971564088</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="Q15" t="n">
-        <v>370.6597971564088</v>
+        <v>235.0469249885657</v>
       </c>
       <c r="R15" t="n">
-        <v>370.6597971564088</v>
+        <v>235.0469249885657</v>
       </c>
       <c r="S15" t="n">
-        <v>277.0588382785278</v>
+        <v>170.3951155350002</v>
       </c>
       <c r="T15" t="n">
-        <v>277.0588382785278</v>
+        <v>170.3951155350002</v>
       </c>
       <c r="U15" t="n">
-        <v>277.0588382785278</v>
+        <v>170.3951155350002</v>
       </c>
       <c r="V15" t="n">
-        <v>277.0588382785278</v>
+        <v>170.3951155350002</v>
       </c>
       <c r="W15" t="n">
-        <v>277.0588382785278</v>
+        <v>170.3951155350002</v>
       </c>
       <c r="X15" t="n">
-        <v>194.6151136988902</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.6151136988902</v>
+        <v>105.7433060814347</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="C16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="D16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="E16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="F16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="G16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="H16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="I16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="J16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="K16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="L16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="M16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="N16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="O16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="P16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="R16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="S16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="T16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="U16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="V16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="W16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="X16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.413195943128176</v>
+        <v>5.120423308722386</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C17" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D17" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E17" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F17" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G17" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H17" t="n">
         <v>7.413195943128176</v>
@@ -5521,7 +5521,7 @@
         <v>21.18357364821451</v>
       </c>
       <c r="L17" t="n">
-        <v>75.16870670940374</v>
+        <v>75.16870670940366</v>
       </c>
       <c r="M17" t="n">
         <v>166.9070065056148</v>
@@ -5548,19 +5548,19 @@
         <v>370.6597971564088</v>
       </c>
       <c r="U17" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V17" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W17" t="n">
-        <v>370.6597971564088</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X17" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y17" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.0141548210092</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="C18" t="n">
-        <v>101.0141548210092</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="D18" t="n">
-        <v>101.0141548210092</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="E18" t="n">
-        <v>101.0141548210092</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="F18" t="n">
-        <v>7.413195943128176</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="G18" t="n">
-        <v>7.413195943128176</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="H18" t="n">
         <v>7.413195943128176</v>
@@ -5600,46 +5600,46 @@
         <v>28.29609765201163</v>
       </c>
       <c r="L18" t="n">
-        <v>43.08143125983008</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M18" t="n">
-        <v>134.8197310560413</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5580308522524</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O18" t="n">
-        <v>317.2247932514005</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P18" t="n">
         <v>370.6597971564088</v>
       </c>
       <c r="Q18" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R18" t="n">
-        <v>288.2160725767712</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="S18" t="n">
-        <v>194.6151136988902</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="T18" t="n">
-        <v>194.6151136988902</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="U18" t="n">
-        <v>101.0141548210092</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="V18" t="n">
-        <v>101.0141548210092</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="W18" t="n">
-        <v>101.0141548210092</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="X18" t="n">
-        <v>101.0141548210092</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="Y18" t="n">
-        <v>101.0141548210092</v>
+        <v>270.7484666479215</v>
       </c>
     </row>
     <row r="19">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C20" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D20" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E20" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F20" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G20" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H20" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I20" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J20" t="n">
         <v>7.413195943128176</v>
@@ -5779,25 +5779,25 @@
         <v>370.6597971564088</v>
       </c>
       <c r="S20" t="n">
-        <v>313.383028812711</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T20" t="n">
-        <v>219.78206993483</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U20" t="n">
-        <v>219.78206993483</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V20" t="n">
-        <v>126.181111056949</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W20" t="n">
-        <v>126.181111056949</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X20" t="n">
-        <v>126.181111056949</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y20" t="n">
-        <v>126.181111056949</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C21" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D21" t="n">
-        <v>135.2033470181483</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E21" t="n">
-        <v>135.2033470181483</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F21" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G21" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H21" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I21" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J21" t="n">
         <v>7.413195943128176</v>
@@ -5843,7 +5843,7 @@
         <v>194.4365770611079</v>
       </c>
       <c r="N21" t="n">
-        <v>279.9930347572608</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O21" t="n">
         <v>370.6597971564088</v>
@@ -5855,28 +5855,28 @@
         <v>356.1721822163859</v>
       </c>
       <c r="R21" t="n">
-        <v>356.1721822163859</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="S21" t="n">
-        <v>356.1721822163859</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="T21" t="n">
-        <v>262.5712233385049</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="U21" t="n">
-        <v>262.5712233385049</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="V21" t="n">
-        <v>262.5712233385049</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="W21" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X21" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="22">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C23" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D23" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E23" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F23" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G23" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H23" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I23" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J23" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K23" t="n">
-        <v>23.8067632626429</v>
+        <v>26.37736235377227</v>
       </c>
       <c r="L23" t="n">
-        <v>80.58313385421297</v>
+        <v>85.88901087540793</v>
       </c>
       <c r="M23" t="n">
-        <v>175.4272232168675</v>
+        <v>183.7766239668943</v>
       </c>
       <c r="N23" t="n">
-        <v>271.7846066223004</v>
+        <v>284.6604861531238</v>
       </c>
       <c r="O23" t="n">
-        <v>353.8137694399329</v>
+        <v>369.6100650431188</v>
       </c>
       <c r="P23" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q23" t="n">
-        <v>389.3227612340723</v>
+        <v>387.577687030035</v>
       </c>
       <c r="R23" t="n">
-        <v>389.3227612340723</v>
+        <v>288.7807189751042</v>
       </c>
       <c r="S23" t="n">
-        <v>389.3227612340723</v>
+        <v>288.7807189751042</v>
       </c>
       <c r="T23" t="n">
-        <v>389.3227612340723</v>
+        <v>288.7807189751042</v>
       </c>
       <c r="U23" t="n">
-        <v>302.7279410080696</v>
+        <v>185.8485057456078</v>
       </c>
       <c r="V23" t="n">
-        <v>204.4141124136069</v>
+        <v>111.0844445172725</v>
       </c>
       <c r="W23" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X23" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y23" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41.06338065982819</v>
+        <v>117.510423507951</v>
       </c>
       <c r="C24" t="n">
-        <v>41.06338065982819</v>
+        <v>117.510423507951</v>
       </c>
       <c r="D24" t="n">
-        <v>41.06338065982819</v>
+        <v>117.510423507951</v>
       </c>
       <c r="E24" t="n">
-        <v>41.06338065982819</v>
+        <v>117.510423507951</v>
       </c>
       <c r="F24" t="n">
-        <v>41.06338065982819</v>
+        <v>14.57821027845461</v>
       </c>
       <c r="G24" t="n">
-        <v>41.06338065982819</v>
+        <v>14.57821027845461</v>
       </c>
       <c r="H24" t="n">
-        <v>41.06338065982819</v>
+        <v>14.57821027845461</v>
       </c>
       <c r="I24" t="n">
-        <v>41.06338065982819</v>
+        <v>14.57821027845461</v>
       </c>
       <c r="J24" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K24" t="n">
-        <v>30.19753787044273</v>
+        <v>32.06085742250684</v>
       </c>
       <c r="L24" t="n">
-        <v>106.6545453422011</v>
+        <v>110.5314969235297</v>
       </c>
       <c r="M24" t="n">
-        <v>203.011928747634</v>
+        <v>211.4153591097592</v>
       </c>
       <c r="N24" t="n">
-        <v>241.1621858766906</v>
+        <v>312.2992212959886</v>
       </c>
       <c r="O24" t="n">
-        <v>334.0806046107603</v>
+        <v>407.4241544567124</v>
       </c>
       <c r="P24" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q24" t="n">
-        <v>376.067708006181</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R24" t="n">
-        <v>336.0048664432164</v>
+        <v>323.3748499669439</v>
       </c>
       <c r="S24" t="n">
-        <v>237.6910378487536</v>
+        <v>323.3748499669439</v>
       </c>
       <c r="T24" t="n">
-        <v>139.3772092542909</v>
+        <v>323.3748499669439</v>
       </c>
       <c r="U24" t="n">
-        <v>139.3772092542909</v>
+        <v>220.4426367374475</v>
       </c>
       <c r="V24" t="n">
-        <v>139.3772092542909</v>
+        <v>117.510423507951</v>
       </c>
       <c r="W24" t="n">
-        <v>41.06338065982819</v>
+        <v>117.510423507951</v>
       </c>
       <c r="X24" t="n">
-        <v>41.06338065982819</v>
+        <v>117.510423507951</v>
       </c>
       <c r="Y24" t="n">
-        <v>41.06338065982819</v>
+        <v>117.510423507951</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="M25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="N25" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="O25" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="P25" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="R25" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="S25" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="T25" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="U25" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="V25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="W25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>204.4141124136069</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="C26" t="n">
-        <v>106.1002838191442</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="D26" t="n">
-        <v>106.1002838191442</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="E26" t="n">
-        <v>7.786455224681447</v>
+        <v>214.016657746769</v>
       </c>
       <c r="F26" t="n">
-        <v>7.786455224681447</v>
+        <v>111.0844445172725</v>
       </c>
       <c r="G26" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H26" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I26" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J26" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K26" t="n">
-        <v>23.80676326264307</v>
+        <v>26.37736235377241</v>
       </c>
       <c r="L26" t="n">
-        <v>80.58313385421312</v>
+        <v>85.88901087540813</v>
       </c>
       <c r="M26" t="n">
-        <v>175.4272232168675</v>
+        <v>183.7766239668943</v>
       </c>
       <c r="N26" t="n">
-        <v>271.7846066223004</v>
+        <v>284.6604861531238</v>
       </c>
       <c r="O26" t="n">
-        <v>353.8137694399329</v>
+        <v>369.6100650431188</v>
       </c>
       <c r="P26" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q26" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R26" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="S26" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="T26" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="U26" t="n">
-        <v>389.3227612340723</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="V26" t="n">
-        <v>389.3227612340723</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="W26" t="n">
-        <v>302.7279410080696</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="X26" t="n">
-        <v>204.4141124136069</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="Y26" t="n">
-        <v>204.4141124136069</v>
+        <v>316.9488709762654</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.786455224681447</v>
+        <v>220.4426367374475</v>
       </c>
       <c r="C27" t="n">
-        <v>7.786455224681447</v>
+        <v>220.4426367374475</v>
       </c>
       <c r="D27" t="n">
-        <v>7.786455224681447</v>
+        <v>117.510423507951</v>
       </c>
       <c r="E27" t="n">
-        <v>7.786455224681447</v>
+        <v>117.510423507951</v>
       </c>
       <c r="F27" t="n">
-        <v>7.786455224681447</v>
+        <v>14.57821027845461</v>
       </c>
       <c r="G27" t="n">
-        <v>7.786455224681447</v>
+        <v>14.57821027845461</v>
       </c>
       <c r="H27" t="n">
-        <v>7.786455224681447</v>
+        <v>14.57821027845461</v>
       </c>
       <c r="I27" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J27" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K27" t="n">
-        <v>30.19753787044273</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L27" t="n">
-        <v>106.6545453422011</v>
+        <v>86.62287078879896</v>
       </c>
       <c r="M27" t="n">
-        <v>200.0469590945698</v>
+        <v>187.5067329750284</v>
       </c>
       <c r="N27" t="n">
-        <v>296.4043425000027</v>
+        <v>255.473552247632</v>
       </c>
       <c r="O27" t="n">
-        <v>389.3227612340723</v>
+        <v>350.5984854083558</v>
       </c>
       <c r="P27" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q27" t="n">
-        <v>376.067708006181</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R27" t="n">
-        <v>376.067708006181</v>
+        <v>323.3748499669439</v>
       </c>
       <c r="S27" t="n">
-        <v>277.7538794117182</v>
+        <v>323.3748499669439</v>
       </c>
       <c r="T27" t="n">
-        <v>277.7538794117182</v>
+        <v>323.3748499669439</v>
       </c>
       <c r="U27" t="n">
-        <v>179.4400508172555</v>
+        <v>323.3748499669439</v>
       </c>
       <c r="V27" t="n">
-        <v>81.12622222279278</v>
+        <v>323.3748499669439</v>
       </c>
       <c r="W27" t="n">
-        <v>7.786455224681447</v>
+        <v>220.4426367374475</v>
       </c>
       <c r="X27" t="n">
-        <v>7.786455224681447</v>
+        <v>220.4426367374475</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.786455224681447</v>
+        <v>220.4426367374475</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="M28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="N28" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="O28" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="P28" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="R28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="S28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="T28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="U28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="V28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="W28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.7279410080696</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C29" t="n">
-        <v>302.7279410080696</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D29" t="n">
-        <v>302.7279410080696</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E29" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F29" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G29" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H29" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I29" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J29" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K29" t="n">
-        <v>23.80676326264286</v>
+        <v>26.37736235377253</v>
       </c>
       <c r="L29" t="n">
-        <v>80.5831338542129</v>
+        <v>85.88901087540816</v>
       </c>
       <c r="M29" t="n">
-        <v>175.4272232168673</v>
+        <v>183.7766239668944</v>
       </c>
       <c r="N29" t="n">
-        <v>271.7846066223002</v>
+        <v>284.6604861531238</v>
       </c>
       <c r="O29" t="n">
-        <v>353.8137694399327</v>
+        <v>369.6100650431188</v>
       </c>
       <c r="P29" t="n">
-        <v>389.3227612340721</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.3791100071365</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R29" t="n">
-        <v>367.3791100071365</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="S29" t="n">
-        <v>302.7279410080696</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="T29" t="n">
-        <v>302.7279410080696</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="U29" t="n">
-        <v>302.7279410080696</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="V29" t="n">
-        <v>302.7279410080696</v>
+        <v>214.016657746769</v>
       </c>
       <c r="W29" t="n">
-        <v>302.7279410080696</v>
+        <v>111.0844445172725</v>
       </c>
       <c r="X29" t="n">
-        <v>302.7279410080696</v>
+        <v>111.0844445172725</v>
       </c>
       <c r="Y29" t="n">
-        <v>302.7279410080696</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>179.4400508172555</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C30" t="n">
-        <v>179.4400508172555</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D30" t="n">
-        <v>179.4400508172555</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E30" t="n">
-        <v>179.4400508172555</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F30" t="n">
-        <v>179.4400508172555</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G30" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H30" t="n">
-        <v>41.06338065982819</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I30" t="n">
-        <v>41.06338065982819</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J30" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K30" t="n">
-        <v>30.19753787044273</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L30" t="n">
-        <v>106.6545453422011</v>
+        <v>86.62287078879896</v>
       </c>
       <c r="M30" t="n">
-        <v>203.011928747634</v>
+        <v>187.5067329750284</v>
       </c>
       <c r="N30" t="n">
-        <v>296.4043425000027</v>
+        <v>255.473552247632</v>
       </c>
       <c r="O30" t="n">
-        <v>389.3227612340723</v>
+        <v>350.5984854083558</v>
       </c>
       <c r="P30" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q30" t="n">
-        <v>376.067708006181</v>
+        <v>395.5643620915292</v>
       </c>
       <c r="R30" t="n">
-        <v>376.067708006181</v>
+        <v>311.3276476696673</v>
       </c>
       <c r="S30" t="n">
-        <v>376.067708006181</v>
+        <v>208.3954344401708</v>
       </c>
       <c r="T30" t="n">
-        <v>376.067708006181</v>
+        <v>105.4632212106744</v>
       </c>
       <c r="U30" t="n">
-        <v>376.067708006181</v>
+        <v>105.4632212106744</v>
       </c>
       <c r="V30" t="n">
-        <v>277.7538794117182</v>
+        <v>105.4632212106744</v>
       </c>
       <c r="W30" t="n">
-        <v>179.4400508172555</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X30" t="n">
-        <v>179.4400508172555</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y30" t="n">
-        <v>179.4400508172555</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="M31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="N31" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="O31" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="P31" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="R31" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="S31" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="T31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="U31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="V31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="W31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C32" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D32" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E32" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F32" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G32" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H32" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I32" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J32" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K32" t="n">
-        <v>23.80676326264307</v>
+        <v>26.37736235377253</v>
       </c>
       <c r="L32" t="n">
-        <v>80.58313385421312</v>
+        <v>85.88901087540816</v>
       </c>
       <c r="M32" t="n">
-        <v>175.4272232168675</v>
+        <v>183.7766239668944</v>
       </c>
       <c r="N32" t="n">
-        <v>271.7846066223004</v>
+        <v>284.6604861531238</v>
       </c>
       <c r="O32" t="n">
-        <v>353.8137694399329</v>
+        <v>369.6100650431188</v>
       </c>
       <c r="P32" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q32" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R32" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="S32" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="T32" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="U32" t="n">
-        <v>389.3227612340723</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="V32" t="n">
-        <v>389.3227612340723</v>
+        <v>214.016657746769</v>
       </c>
       <c r="W32" t="n">
-        <v>302.7279410080696</v>
+        <v>111.0844445172725</v>
       </c>
       <c r="X32" t="n">
-        <v>302.7279410080696</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y32" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>237.6910378487536</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="C33" t="n">
-        <v>237.6910378487536</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="D33" t="n">
-        <v>237.6910378487536</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="E33" t="n">
-        <v>237.6910378487536</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="F33" t="n">
-        <v>237.6910378487536</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="G33" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H33" t="n">
-        <v>41.06338065982819</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I33" t="n">
-        <v>41.06338065982819</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J33" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K33" t="n">
-        <v>30.19753787044273</v>
+        <v>32.06085742250684</v>
       </c>
       <c r="L33" t="n">
-        <v>106.6545453422011</v>
+        <v>110.5314969235297</v>
       </c>
       <c r="M33" t="n">
-        <v>203.011928747634</v>
+        <v>211.4153591097592</v>
       </c>
       <c r="N33" t="n">
-        <v>241.1621858766906</v>
+        <v>312.2992212959886</v>
       </c>
       <c r="O33" t="n">
-        <v>334.0806046107603</v>
+        <v>350.5984854083558</v>
       </c>
       <c r="P33" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q33" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R33" t="n">
-        <v>304.4985558221821</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="S33" t="n">
-        <v>304.4985558221821</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="T33" t="n">
-        <v>304.4985558221821</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="U33" t="n">
-        <v>304.4985558221821</v>
+        <v>304.6793511593094</v>
       </c>
       <c r="V33" t="n">
-        <v>304.4985558221821</v>
+        <v>201.747137929813</v>
       </c>
       <c r="W33" t="n">
-        <v>304.4985558221821</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="X33" t="n">
-        <v>304.4985558221821</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.4985558221821</v>
+        <v>98.81492470031657</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="M34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="N34" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="O34" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="P34" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="R34" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="S34" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="T34" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="U34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="V34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="W34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>204.4141124136069</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="C35" t="n">
-        <v>204.4141124136069</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="D35" t="n">
-        <v>204.4141124136069</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="E35" t="n">
-        <v>204.4141124136069</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="F35" t="n">
-        <v>204.4141124136069</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="G35" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H35" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I35" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J35" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K35" t="n">
-        <v>23.80676326264296</v>
+        <v>26.37736235377227</v>
       </c>
       <c r="L35" t="n">
-        <v>80.58313385421314</v>
+        <v>85.88901087540793</v>
       </c>
       <c r="M35" t="n">
-        <v>175.4272232168675</v>
+        <v>183.7766239668943</v>
       </c>
       <c r="N35" t="n">
-        <v>271.7846066223004</v>
+        <v>284.6604861531238</v>
       </c>
       <c r="O35" t="n">
-        <v>353.8137694399329</v>
+        <v>369.6100650431188</v>
       </c>
       <c r="P35" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q35" t="n">
-        <v>389.3227612340723</v>
+        <v>387.577687030035</v>
       </c>
       <c r="R35" t="n">
-        <v>389.3227612340723</v>
+        <v>288.7807189751042</v>
       </c>
       <c r="S35" t="n">
-        <v>389.3227612340723</v>
+        <v>185.8485057456078</v>
       </c>
       <c r="T35" t="n">
-        <v>302.7279410080696</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="U35" t="n">
-        <v>302.7279410080696</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="V35" t="n">
-        <v>204.4141124136069</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="W35" t="n">
-        <v>204.4141124136069</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="X35" t="n">
-        <v>204.4141124136069</v>
+        <v>82.91629251611135</v>
       </c>
       <c r="Y35" t="n">
-        <v>204.4141124136069</v>
+        <v>82.91629251611135</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>376.067708006181</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C36" t="n">
-        <v>376.067708006181</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D36" t="n">
-        <v>302.7279410080696</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E36" t="n">
-        <v>302.7279410080696</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F36" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G36" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H36" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I36" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J36" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K36" t="n">
-        <v>30.19753787044273</v>
+        <v>32.06085742250684</v>
       </c>
       <c r="L36" t="n">
-        <v>106.6545453422011</v>
+        <v>110.5314969235297</v>
       </c>
       <c r="M36" t="n">
-        <v>144.8048024712577</v>
+        <v>154.5896900614025</v>
       </c>
       <c r="N36" t="n">
-        <v>241.1621858766906</v>
+        <v>255.473552247632</v>
       </c>
       <c r="O36" t="n">
-        <v>334.0806046107603</v>
+        <v>350.5984854083558</v>
       </c>
       <c r="P36" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q36" t="n">
-        <v>376.067708006181</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R36" t="n">
-        <v>376.067708006181</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="S36" t="n">
-        <v>376.067708006181</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="T36" t="n">
-        <v>376.067708006181</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="U36" t="n">
-        <v>376.067708006181</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="V36" t="n">
-        <v>376.067708006181</v>
+        <v>304.6793511593094</v>
       </c>
       <c r="W36" t="n">
-        <v>376.067708006181</v>
+        <v>201.747137929813</v>
       </c>
       <c r="X36" t="n">
-        <v>376.067708006181</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="Y36" t="n">
-        <v>376.067708006181</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="M37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="N37" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="O37" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="P37" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="R37" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="S37" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="T37" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="U37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="V37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="W37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C38" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D38" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E38" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F38" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G38" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H38" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I38" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J38" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K38" t="n">
-        <v>23.8067632626429</v>
+        <v>26.37736235377241</v>
       </c>
       <c r="L38" t="n">
-        <v>80.58313385421297</v>
+        <v>85.88901087540813</v>
       </c>
       <c r="M38" t="n">
-        <v>175.4272232168675</v>
+        <v>183.7766239668943</v>
       </c>
       <c r="N38" t="n">
-        <v>271.7846066223004</v>
+        <v>284.6604861531238</v>
       </c>
       <c r="O38" t="n">
-        <v>353.8137694399329</v>
+        <v>369.6100650431188</v>
       </c>
       <c r="P38" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q38" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R38" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="S38" t="n">
-        <v>389.3227612340723</v>
+        <v>304.6793511593094</v>
       </c>
       <c r="T38" t="n">
-        <v>389.3227612340723</v>
+        <v>201.747137929813</v>
       </c>
       <c r="U38" t="n">
-        <v>389.3227612340723</v>
+        <v>111.0844445172725</v>
       </c>
       <c r="V38" t="n">
-        <v>389.3227612340723</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="W38" t="n">
-        <v>389.3227612340723</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X38" t="n">
-        <v>302.7279410080696</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y38" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C39" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D39" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E39" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F39" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G39" t="n">
-        <v>41.06338065982819</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H39" t="n">
-        <v>41.06338065982819</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I39" t="n">
-        <v>41.06338065982819</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J39" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K39" t="n">
-        <v>30.19753787044273</v>
+        <v>32.06085742250684</v>
       </c>
       <c r="L39" t="n">
-        <v>106.6545453422011</v>
+        <v>110.5314969235297</v>
       </c>
       <c r="M39" t="n">
-        <v>144.8048024712577</v>
+        <v>211.4153591097592</v>
       </c>
       <c r="N39" t="n">
-        <v>241.1621858766906</v>
+        <v>312.2992212959886</v>
       </c>
       <c r="O39" t="n">
-        <v>334.0806046107603</v>
+        <v>350.5984854083558</v>
       </c>
       <c r="P39" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q39" t="n">
-        <v>376.067708006181</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R39" t="n">
-        <v>291.2435025942908</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="S39" t="n">
-        <v>291.2435025942908</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="T39" t="n">
-        <v>291.2435025942908</v>
+        <v>304.6793511593094</v>
       </c>
       <c r="U39" t="n">
-        <v>291.2435025942908</v>
+        <v>201.747137929813</v>
       </c>
       <c r="V39" t="n">
-        <v>237.6910378487536</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="W39" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X39" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y39" t="n">
-        <v>139.3772092542909</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="M40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="N40" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="O40" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="P40" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="R40" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="S40" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="T40" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="U40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="V40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="W40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>204.4141124136069</v>
+        <v>111.0844445172725</v>
       </c>
       <c r="C41" t="n">
-        <v>106.1002838191442</v>
+        <v>111.0844445172725</v>
       </c>
       <c r="D41" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E41" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F41" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G41" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H41" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I41" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J41" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K41" t="n">
-        <v>23.8067632626429</v>
+        <v>26.37736235377241</v>
       </c>
       <c r="L41" t="n">
-        <v>80.58313385421297</v>
+        <v>85.88901087540813</v>
       </c>
       <c r="M41" t="n">
-        <v>175.4272232168675</v>
+        <v>183.7766239668943</v>
       </c>
       <c r="N41" t="n">
-        <v>271.7846066223004</v>
+        <v>284.6604861531238</v>
       </c>
       <c r="O41" t="n">
-        <v>353.8137694399329</v>
+        <v>369.6100650431188</v>
       </c>
       <c r="P41" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q41" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R41" t="n">
-        <v>389.3227612340723</v>
+        <v>316.9488709762654</v>
       </c>
       <c r="S41" t="n">
-        <v>389.3227612340723</v>
+        <v>214.016657746769</v>
       </c>
       <c r="T41" t="n">
-        <v>389.3227612340723</v>
+        <v>214.016657746769</v>
       </c>
       <c r="U41" t="n">
-        <v>389.3227612340723</v>
+        <v>214.016657746769</v>
       </c>
       <c r="V41" t="n">
-        <v>389.3227612340723</v>
+        <v>214.016657746769</v>
       </c>
       <c r="W41" t="n">
-        <v>302.7279410080696</v>
+        <v>214.016657746769</v>
       </c>
       <c r="X41" t="n">
-        <v>302.7279410080696</v>
+        <v>214.016657746769</v>
       </c>
       <c r="Y41" t="n">
-        <v>204.4141124136069</v>
+        <v>214.016657746769</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C42" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D42" t="n">
-        <v>94.38127545068416</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E42" t="n">
-        <v>94.38127545068416</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F42" t="n">
-        <v>94.38127545068416</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G42" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H42" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I42" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J42" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K42" t="n">
-        <v>30.19753787044273</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L42" t="n">
-        <v>106.6545453422011</v>
+        <v>86.62287078879896</v>
       </c>
       <c r="M42" t="n">
-        <v>203.011928747634</v>
+        <v>187.5067329750284</v>
       </c>
       <c r="N42" t="n">
-        <v>299.3693121530669</v>
+        <v>255.473552247632</v>
       </c>
       <c r="O42" t="n">
-        <v>334.0806046107603</v>
+        <v>350.5984854083558</v>
       </c>
       <c r="P42" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q42" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R42" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="S42" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="T42" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="U42" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="V42" t="n">
-        <v>291.0089326396096</v>
+        <v>304.6793511593094</v>
       </c>
       <c r="W42" t="n">
-        <v>192.6951040451469</v>
+        <v>201.747137929813</v>
       </c>
       <c r="X42" t="n">
-        <v>192.6951040451469</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="Y42" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="M43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="N43" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="O43" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="P43" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="R43" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="S43" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="T43" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="U43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="V43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="W43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C44" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D44" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E44" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F44" t="n">
-        <v>94.38127545068416</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G44" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H44" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I44" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J44" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K44" t="n">
-        <v>23.80676326264307</v>
+        <v>26.37736235377253</v>
       </c>
       <c r="L44" t="n">
-        <v>80.58313385421312</v>
+        <v>85.88901087540816</v>
       </c>
       <c r="M44" t="n">
-        <v>175.4272232168675</v>
+        <v>183.7766239668944</v>
       </c>
       <c r="N44" t="n">
-        <v>271.7846066223004</v>
+        <v>284.6604861531238</v>
       </c>
       <c r="O44" t="n">
-        <v>353.8137694399329</v>
+        <v>369.6100650431188</v>
       </c>
       <c r="P44" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q44" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R44" t="n">
-        <v>389.3227612340723</v>
+        <v>308.8145963338751</v>
       </c>
       <c r="S44" t="n">
-        <v>291.0089326396096</v>
+        <v>205.8823831043787</v>
       </c>
       <c r="T44" t="n">
-        <v>291.0089326396096</v>
+        <v>111.0844445172725</v>
       </c>
       <c r="U44" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="V44" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="W44" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="X44" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.6951040451469</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>389.3227612340723</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="C45" t="n">
-        <v>302.7279410080696</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="D45" t="n">
-        <v>204.4141124136069</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="E45" t="n">
-        <v>106.1002838191442</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="F45" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="G45" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H45" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I45" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J45" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K45" t="n">
-        <v>30.19753787044273</v>
+        <v>32.06085742250684</v>
       </c>
       <c r="L45" t="n">
-        <v>106.6545453422011</v>
+        <v>110.5314969235297</v>
       </c>
       <c r="M45" t="n">
-        <v>203.011928747634</v>
+        <v>211.4153591097592</v>
       </c>
       <c r="N45" t="n">
-        <v>241.1621858766906</v>
+        <v>312.2992212959886</v>
       </c>
       <c r="O45" t="n">
-        <v>334.0806046107603</v>
+        <v>407.4241544567124</v>
       </c>
       <c r="P45" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="Q45" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="R45" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="S45" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="T45" t="n">
-        <v>389.3227612340723</v>
+        <v>407.6115643888058</v>
       </c>
       <c r="U45" t="n">
-        <v>389.3227612340723</v>
+        <v>304.6793511593094</v>
       </c>
       <c r="V45" t="n">
-        <v>389.3227612340723</v>
+        <v>201.747137929813</v>
       </c>
       <c r="W45" t="n">
-        <v>389.3227612340723</v>
+        <v>98.81492470031657</v>
       </c>
       <c r="X45" t="n">
-        <v>389.3227612340723</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="Y45" t="n">
-        <v>389.3227612340723</v>
+        <v>8.152231287776116</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="C46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="D46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="E46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="F46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="G46" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="H46" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="I46" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="J46" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="K46" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="L46" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="M46" t="n">
-        <v>7.786455224681447</v>
+        <v>8.152231287776116</v>
       </c>
       <c r="N46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="O46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="P46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="R46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="S46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="T46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="U46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="V46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="W46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="X46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.786455224681447</v>
+        <v>9.157426549637833</v>
       </c>
     </row>
   </sheetData>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>290.6777502616532</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>317.925078713232</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,7 +23275,7 @@
         <v>357.1813389627642</v>
       </c>
       <c r="H11" t="n">
-        <v>321.5983118583879</v>
+        <v>257.5930204993581</v>
       </c>
       <c r="I11" t="n">
         <v>143.1810387809403</v>
@@ -23311,16 +23311,16 @@
         <v>169.243624158194</v>
       </c>
       <c r="T11" t="n">
-        <v>151.449465945692</v>
+        <v>215.4547573047218</v>
       </c>
       <c r="U11" t="n">
         <v>251.2060098739695</v>
       </c>
       <c r="V11" t="n">
-        <v>263.7469671111051</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>285.2356773583832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>102.5278922908375</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>83.43977420560893</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>139.8695133690291</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>81.06392103435405</v>
       </c>
       <c r="G12" t="n">
-        <v>80.03371140849717</v>
+        <v>136.4095720375306</v>
       </c>
       <c r="H12" t="n">
         <v>103.2155005226921</v>
@@ -23360,7 +23360,7 @@
         <v>67.3668131728592</v>
       </c>
       <c r="J12" t="n">
-        <v>38.60029354266159</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>196.4002744382429</v>
       </c>
       <c r="U12" t="n">
-        <v>161.8746469636766</v>
+        <v>225.8799383227064</v>
       </c>
       <c r="V12" t="n">
-        <v>168.7952957903954</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>187.6896918018898</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>301.2676004119777</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7982251355236</v>
+        <v>357.1813389627642</v>
       </c>
       <c r="H14" t="n">
-        <v>320.6353766150897</v>
+        <v>321.5983118583879</v>
       </c>
       <c r="I14" t="n">
-        <v>139.5561335235496</v>
+        <v>143.1810387809403</v>
       </c>
       <c r="J14" t="n">
-        <v>24.91528667358037</v>
+        <v>32.89555520582749</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.65357118422324</v>
+        <v>33.80723145564642</v>
       </c>
       <c r="R14" t="n">
-        <v>7.366133540830873</v>
+        <v>105.9373912372883</v>
       </c>
       <c r="S14" t="n">
-        <v>167.1010256612668</v>
+        <v>169.243624158194</v>
       </c>
       <c r="T14" t="n">
-        <v>122.3782128463251</v>
+        <v>215.4547573047218</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1984878605957</v>
+        <v>187.2007185149397</v>
       </c>
       <c r="V14" t="n">
-        <v>246.1329711362937</v>
+        <v>263.7469671111051</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>108.7032076292859</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>52.40426310428168</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>43.69431484884211</v>
+        <v>136.4095720375306</v>
       </c>
       <c r="H15" t="n">
-        <v>102.729632124056</v>
+        <v>67.60413793673679</v>
       </c>
       <c r="I15" t="n">
-        <v>65.63472101605001</v>
+        <v>67.3668131728592</v>
       </c>
       <c r="J15" t="n">
-        <v>33.84730027516773</v>
+        <v>38.60029354266159</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.56947841277972</v>
+        <v>87.69298116077856</v>
       </c>
       <c r="S15" t="n">
-        <v>60.73615356033713</v>
+        <v>90.33025866035689</v>
       </c>
       <c r="T15" t="n">
-        <v>196.197498299121</v>
+        <v>196.4002744382429</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8799383227064</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>124.1536978696362</v>
+        <v>141.7676938444476</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23667,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.1658146852775</v>
+        <v>167.2079911383388</v>
       </c>
       <c r="H16" t="n">
-        <v>154.8907084131551</v>
+        <v>155.2656954230999</v>
       </c>
       <c r="I16" t="n">
-        <v>130.6355227555885</v>
+        <v>131.9038837258314</v>
       </c>
       <c r="J16" t="n">
-        <v>68.65627904547948</v>
+        <v>71.63815427691216</v>
       </c>
       <c r="K16" t="n">
-        <v>33.14412614092828</v>
+        <v>38.04426314204819</v>
       </c>
       <c r="L16" t="n">
-        <v>12.20519387026839</v>
+        <v>18.47568217357946</v>
       </c>
       <c r="M16" t="n">
-        <v>9.577470677924651</v>
+        <v>16.18882140643099</v>
       </c>
       <c r="N16" t="n">
-        <v>1.412844977410202</v>
+        <v>7.866992562688111</v>
       </c>
       <c r="O16" t="n">
-        <v>21.823262646183</v>
+        <v>27.78471257524502</v>
       </c>
       <c r="P16" t="n">
-        <v>37.92808757638606</v>
+        <v>43.02913786299791</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.40871249605685</v>
+        <v>85.94041530648843</v>
       </c>
       <c r="R16" t="n">
-        <v>140.1909870721275</v>
+        <v>142.087393770683</v>
       </c>
       <c r="S16" t="n">
-        <v>209.6362282325312</v>
+        <v>210.3712487826992</v>
       </c>
       <c r="T16" t="n">
-        <v>224.4198858246887</v>
+        <v>224.6000943059506</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2763209081207</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>331.8438870907846</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H17" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I17" t="n">
         <v>139.5561335235496</v>
@@ -23788,19 +23788,19 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X17" t="n">
-        <v>277.0661513893668</v>
+        <v>288.1118133446278</v>
       </c>
       <c r="Y17" t="n">
-        <v>293.5729893669514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921354</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,13 +23822,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>52.40426310428168</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H18" t="n">
-        <v>102.729632124056</v>
+        <v>27.35761270451493</v>
       </c>
       <c r="I18" t="n">
         <v>65.63472101605001</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2.950191078938488</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.73615356033713</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T18" t="n">
         <v>196.197498299121</v>
       </c>
       <c r="U18" t="n">
-        <v>133.2116793033683</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>301.1145543296394</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H20" t="n">
         <v>320.6353766150897</v>
@@ -23992,7 +23992,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>100.0310828299331</v>
       </c>
       <c r="S20" t="n">
-        <v>110.3970250010059</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T20" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V20" t="n">
         <v>235.0873091810327</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24053,13 +24053,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>114.0158172965879</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>52.40426310428168</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.3592641379443</v>
@@ -24071,7 +24071,7 @@
         <v>65.63472101605001</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T21" t="n">
-        <v>103.5325490100188</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W21" t="n">
-        <v>159.0300338718174</v>
+        <v>176.3229637413786</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>257.3523513121648</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4453081518006</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H23" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I23" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J23" t="n">
-        <v>23.39890910037889</v>
+        <v>21.91293233757057</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.72421471466629</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>98.90879056957439</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>166.6938979692615</v>
+        <v>166.2949325001678</v>
       </c>
       <c r="T23" t="n">
-        <v>214.9649525261348</v>
+        <v>214.8883108874751</v>
       </c>
       <c r="U23" t="n">
-        <v>165.468186535027</v>
+        <v>149.2927668148309</v>
       </c>
       <c r="V23" t="n">
-        <v>230.4215681616168</v>
+        <v>253.735837854083</v>
       </c>
       <c r="W23" t="n">
-        <v>251.9102784088949</v>
+        <v>247.3380776202115</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>43.16632129618242</v>
       </c>
       <c r="G24" t="n">
-        <v>136.3497048392341</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H24" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I24" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>25.69739940005488</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,25 +24329,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>11.92673027430385</v>
       </c>
       <c r="R24" t="n">
-        <v>44.31375021043635</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>55.89285276005373</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T24" t="n">
-        <v>98.82827730852088</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8759996912395</v>
+        <v>123.9724923012151</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>130.8976960522238</v>
       </c>
       <c r="W24" t="n">
-        <v>154.3642928524015</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24378,52 +24378,52 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H25" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J25" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890757</v>
       </c>
       <c r="K25" t="n">
-        <v>32.21302240374355</v>
+        <v>31.30058572459947</v>
       </c>
       <c r="L25" t="n">
-        <v>11.01370165446878</v>
+        <v>9.846096846118073</v>
       </c>
       <c r="M25" t="n">
-        <v>8.321209195899911</v>
+        <v>7.090133635768353</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1864545855455191</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>20.69049262225904</v>
+        <v>19.58043272497171</v>
       </c>
       <c r="P25" t="n">
-        <v>36.95880712885041</v>
+        <v>36.00895911794801</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.73763295589968</v>
+        <v>81.08000742760579</v>
       </c>
       <c r="R25" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S25" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T25" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>251.1425000145849</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,28 +24445,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>267.9422014624895</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>284.5996797637437</v>
+        <v>280.0274789750603</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>304.97315464451</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4453081518006</v>
+        <v>311.5249089703822</v>
       </c>
       <c r="H26" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I26" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J26" t="n">
-        <v>23.39890910037889</v>
+        <v>21.91293233757057</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.72421471466629</v>
+        <v>19.83353858518316</v>
       </c>
       <c r="R26" t="n">
-        <v>98.90879056957439</v>
+        <v>97.80899837438143</v>
       </c>
       <c r="S26" t="n">
-        <v>166.6938979692615</v>
+        <v>166.2949325001678</v>
       </c>
       <c r="T26" t="n">
-        <v>214.9649525261348</v>
+        <v>214.8883108874751</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1970585587697</v>
+        <v>161.4395914336174</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>263.5120966936703</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>272.4004103699509</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24527,25 +24527,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>45.54217446743729</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>43.16632129618242</v>
       </c>
       <c r="G27" t="n">
-        <v>136.3497048392341</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H27" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I27" t="n">
-        <v>65.30559603852697</v>
+        <v>58.62135026040256</v>
       </c>
       <c r="J27" t="n">
-        <v>32.94415618079528</v>
+        <v>32.05911860082658</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,25 +24566,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>11.92673027430385</v>
       </c>
       <c r="R27" t="n">
-        <v>83.97596335777129</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.89285276005373</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T27" t="n">
-        <v>196.158967617039</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U27" t="n">
-        <v>128.5453093827214</v>
+        <v>225.8753833984165</v>
       </c>
       <c r="V27" t="n">
-        <v>135.4698968409072</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>179.0886138327894</v>
+        <v>149.7920920637181</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24615,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H28" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I28" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J28" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890757</v>
       </c>
       <c r="K28" t="n">
-        <v>32.21302240374355</v>
+        <v>31.30058572459947</v>
       </c>
       <c r="L28" t="n">
-        <v>11.01370165446878</v>
+        <v>9.846096846118073</v>
       </c>
       <c r="M28" t="n">
-        <v>8.321209195899911</v>
+        <v>7.090133635768353</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1864545855455191</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>20.69049262225904</v>
+        <v>19.58043272497171</v>
       </c>
       <c r="P28" t="n">
-        <v>36.95880712885041</v>
+        <v>36.00895911794801</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.73763295589968</v>
+        <v>81.08000742760579</v>
       </c>
       <c r="R28" t="n">
-        <v>139.8306397259526</v>
+        <v>138.4823734264867</v>
       </c>
       <c r="S28" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T28" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24688,22 +24688,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>284.5996797637437</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>309.5453554331933</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>316.1146178432825</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H29" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I29" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J29" t="n">
-        <v>23.39890910037889</v>
+        <v>21.91293233757057</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>19.83353858518316</v>
       </c>
       <c r="R29" t="n">
-        <v>98.90879056957439</v>
+        <v>97.80899837438143</v>
       </c>
       <c r="S29" t="n">
-        <v>102.6892406601853</v>
+        <v>166.2949325001678</v>
       </c>
       <c r="T29" t="n">
-        <v>214.9649525261348</v>
+        <v>214.8883108874751</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1970585587697</v>
+        <v>161.4395914336174</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>225.8493673729334</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>247.3380776202115</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>284.3350475588521</v>
       </c>
     </row>
     <row r="30">
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>96.68749169189917</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H30" t="n">
-        <v>5.306619114836508</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I30" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>32.05911860082658</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.97596335777129</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>153.2235430685718</v>
+        <v>51.14665196435269</v>
       </c>
       <c r="T30" t="n">
-        <v>196.158967617039</v>
+        <v>94.21831831288372</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8759996912395</v>
+        <v>225.8753833984165</v>
       </c>
       <c r="V30" t="n">
-        <v>135.4698968409072</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>154.3642928524015</v>
+        <v>155.3571031372503</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24852,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H31" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I31" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J31" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890757</v>
       </c>
       <c r="K31" t="n">
-        <v>32.21302240374355</v>
+        <v>31.30058572459947</v>
       </c>
       <c r="L31" t="n">
-        <v>11.01370165446878</v>
+        <v>9.846096846118073</v>
       </c>
       <c r="M31" t="n">
-        <v>8.321209195899911</v>
+        <v>7.090133635768353</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1864545855455191</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>20.69049262225904</v>
+        <v>19.58043272497171</v>
       </c>
       <c r="P31" t="n">
-        <v>36.95880712885041</v>
+        <v>36.00895911794801</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.73763295589968</v>
+        <v>81.08000742760579</v>
       </c>
       <c r="R31" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S31" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T31" t="n">
-        <v>224.3856433554809</v>
+        <v>223.3569440807293</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24928,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>309.5453554331933</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>316.1146178432825</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H32" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I32" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J32" t="n">
-        <v>23.39890910037889</v>
+        <v>21.91293233757057</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.72421471466629</v>
+        <v>19.83353858518316</v>
       </c>
       <c r="R32" t="n">
-        <v>98.90879056957439</v>
+        <v>97.80899837438143</v>
       </c>
       <c r="S32" t="n">
-        <v>166.6938979692615</v>
+        <v>166.2949325001678</v>
       </c>
       <c r="T32" t="n">
-        <v>214.9649525261348</v>
+        <v>214.8883108874751</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1970585587697</v>
+        <v>161.4395914336174</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>225.8493673729334</v>
       </c>
       <c r="W32" t="n">
-        <v>263.5120966936703</v>
+        <v>247.3380776202115</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>267.8282095812676</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.9072483475355</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.3937408561731</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25010,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>39.01901453071602</v>
+        <v>46.58427070990997</v>
       </c>
       <c r="H33" t="n">
-        <v>5.306619114836508</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I33" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>32.05911860082658</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.12250269561245</v>
+        <v>11.92673027430385</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.39434727764331</v>
       </c>
       <c r="S33" t="n">
-        <v>153.2235430685718</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T33" t="n">
-        <v>196.158967617039</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8759996912395</v>
+        <v>123.9724923012151</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>130.8976960522238</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>149.7920920637181</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25089,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H34" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J34" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890757</v>
       </c>
       <c r="K34" t="n">
-        <v>32.21302240374355</v>
+        <v>31.30058572459947</v>
       </c>
       <c r="L34" t="n">
-        <v>11.01370165446878</v>
+        <v>9.846096846118073</v>
       </c>
       <c r="M34" t="n">
-        <v>8.321209195899911</v>
+        <v>7.090133635768353</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1864545855455191</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>20.69049262225904</v>
+        <v>19.58043272497171</v>
       </c>
       <c r="P34" t="n">
-        <v>36.95880712885041</v>
+        <v>36.00895911794801</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.73763295589968</v>
+        <v>81.08000742760579</v>
       </c>
       <c r="R34" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S34" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T34" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2735832364126</v>
+        <v>285.2780115531417</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>316.1146178432825</v>
+        <v>339.4113794515317</v>
       </c>
       <c r="H35" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I35" t="n">
-        <v>41.53665373193638</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J35" t="n">
-        <v>23.39890910037889</v>
+        <v>21.91293233757057</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.72421471466629</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>98.90879056957439</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>166.6938979692615</v>
+        <v>64.39204140296633</v>
       </c>
       <c r="T35" t="n">
-        <v>129.2360805023921</v>
+        <v>112.9854197902736</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1970585587697</v>
+        <v>251.1956579120324</v>
       </c>
       <c r="V35" t="n">
-        <v>230.4215681616168</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25238,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>74.8386962365085</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>47.73852208486579</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>39.01901453071602</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H36" t="n">
-        <v>5.306619114836508</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I36" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J36" t="n">
-        <v>32.94415618079528</v>
+        <v>32.05911860082658</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,31 +25277,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>11.92673027430385</v>
       </c>
       <c r="R36" t="n">
-        <v>83.97596335777129</v>
+        <v>83.39434727764331</v>
       </c>
       <c r="S36" t="n">
-        <v>153.2235430685718</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T36" t="n">
-        <v>196.158967617039</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8759996912395</v>
+        <v>225.8753833984165</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>130.8976960522238</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>149.7920920637181</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>103.870094106276</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>115.9266292988893</v>
       </c>
     </row>
     <row r="37">
@@ -25326,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H37" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J37" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890757</v>
       </c>
       <c r="K37" t="n">
-        <v>32.21302240374355</v>
+        <v>31.30058572459947</v>
       </c>
       <c r="L37" t="n">
-        <v>11.01370165446878</v>
+        <v>9.846096846118073</v>
       </c>
       <c r="M37" t="n">
-        <v>8.321209195899911</v>
+        <v>7.090133635768353</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1864545855455191</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>20.69049262225904</v>
+        <v>19.58043272497171</v>
       </c>
       <c r="P37" t="n">
-        <v>36.95880712885041</v>
+        <v>36.00895911794801</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.73763295589968</v>
+        <v>81.08000742760579</v>
       </c>
       <c r="R37" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S37" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T37" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2735832364126</v>
+        <v>285.2780115531417</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>257.3523513121648</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>316.1146178432825</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H38" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I38" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J38" t="n">
-        <v>23.39890910037889</v>
+        <v>21.91293233757057</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.72421471466629</v>
+        <v>19.83353858518316</v>
       </c>
       <c r="R38" t="n">
-        <v>98.90879056957439</v>
+        <v>97.80899837438143</v>
       </c>
       <c r="S38" t="n">
-        <v>166.6938979692615</v>
+        <v>64.39204140296633</v>
       </c>
       <c r="T38" t="n">
-        <v>214.9649525261348</v>
+        <v>112.9854197902736</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1970585587697</v>
+        <v>161.4395914336174</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>225.8493673729334</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>284.0022286547263</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.9072483475355</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>39.01901453071602</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H39" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I39" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>32.05911860082658</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,25 +25514,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>11.92673027430385</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.39434727764331</v>
       </c>
       <c r="S39" t="n">
-        <v>153.2235430685718</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T39" t="n">
-        <v>196.158967617039</v>
+        <v>94.21831831288372</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8759996912395</v>
+        <v>123.9724923012151</v>
       </c>
       <c r="V39" t="n">
-        <v>179.7836470513435</v>
+        <v>130.8976960522238</v>
       </c>
       <c r="W39" t="n">
-        <v>154.3642928524015</v>
+        <v>161.9389166825046</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25563,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H40" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J40" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890757</v>
       </c>
       <c r="K40" t="n">
-        <v>32.21302240374355</v>
+        <v>31.30058572459947</v>
       </c>
       <c r="L40" t="n">
-        <v>11.01370165446878</v>
+        <v>9.846096846118073</v>
       </c>
       <c r="M40" t="n">
-        <v>8.321209195899911</v>
+        <v>7.090133635768353</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1864545855455191</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>20.69049262225904</v>
+        <v>19.58043272497171</v>
       </c>
       <c r="P40" t="n">
-        <v>36.95880712885041</v>
+        <v>36.00895911794801</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.73763295589968</v>
+        <v>81.08000742760579</v>
       </c>
       <c r="R40" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S40" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T40" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2735832364126</v>
+        <v>285.2780115531417</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,31 +25627,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>280.8309505662791</v>
       </c>
       <c r="C41" t="n">
-        <v>267.9422014624895</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>252.7801505234815</v>
       </c>
       <c r="E41" t="n">
-        <v>284.5996797637437</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4453081518006</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H41" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I41" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J41" t="n">
-        <v>23.39890910037889</v>
+        <v>21.91293233757057</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.72421471466629</v>
+        <v>19.83353858518316</v>
       </c>
       <c r="R41" t="n">
-        <v>98.90879056957439</v>
+        <v>8.052931895966424</v>
       </c>
       <c r="S41" t="n">
-        <v>166.6938979692615</v>
+        <v>64.39204140296633</v>
       </c>
       <c r="T41" t="n">
-        <v>214.9649525261348</v>
+        <v>214.8883108874751</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1970585587697</v>
+        <v>251.1956579120324</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>263.5120966936703</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.9072483475355</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25712,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>50.11437525612067</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>50.62083281549143</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H42" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I42" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J42" t="n">
-        <v>32.94415618079528</v>
+        <v>32.05911860082658</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.12250269561245</v>
+        <v>11.92673027430385</v>
       </c>
       <c r="R42" t="n">
-        <v>83.97596335777129</v>
+        <v>83.39434727764331</v>
       </c>
       <c r="S42" t="n">
-        <v>153.2235430685718</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T42" t="n">
-        <v>196.158967617039</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8759996912395</v>
+        <v>225.8753833984165</v>
       </c>
       <c r="V42" t="n">
-        <v>135.4698968409072</v>
+        <v>130.8976960522238</v>
       </c>
       <c r="W42" t="n">
-        <v>154.3642928524015</v>
+        <v>149.7920920637181</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>103.870094106276</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>115.9266292988893</v>
       </c>
     </row>
     <row r="43">
@@ -25800,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.1578004903565</v>
+        <v>167.1499469665141</v>
       </c>
       <c r="H43" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J43" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890757</v>
       </c>
       <c r="K43" t="n">
-        <v>32.21302240374355</v>
+        <v>31.30058572459947</v>
       </c>
       <c r="L43" t="n">
-        <v>11.01370165446878</v>
+        <v>9.846096846118073</v>
       </c>
       <c r="M43" t="n">
-        <v>8.321209195899911</v>
+        <v>7.090133635768353</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1864545855455191</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>20.69049262225904</v>
+        <v>19.58043272497171</v>
       </c>
       <c r="P43" t="n">
-        <v>36.95880712885041</v>
+        <v>36.00895911794801</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.73763295589968</v>
+        <v>81.08000742760579</v>
       </c>
       <c r="R43" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S43" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T43" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2735832364126</v>
+        <v>285.2780115531417</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25876,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>309.5453554331933</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>327.7164361280579</v>
+        <v>413.4278000675836</v>
       </c>
       <c r="H44" t="n">
-        <v>320.4524036485182</v>
+        <v>320.2730989810314</v>
       </c>
       <c r="I44" t="n">
-        <v>138.8673440404545</v>
+        <v>138.1923636236805</v>
       </c>
       <c r="J44" t="n">
-        <v>23.39890910037889</v>
+        <v>21.91293233757057</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.72421471466629</v>
+        <v>19.83353858518316</v>
       </c>
       <c r="R44" t="n">
-        <v>98.90879056957439</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.36320766074343</v>
+        <v>64.39204140296633</v>
       </c>
       <c r="T44" t="n">
-        <v>214.9649525261348</v>
+        <v>121.03835168624</v>
       </c>
       <c r="U44" t="n">
-        <v>153.8663682502516</v>
+        <v>149.2927668148309</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25946,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>86.97962696457301</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>50.11437525612067</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>60.31439014688286</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>47.73852208486579</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.3497048392341</v>
+        <v>136.340337188325</v>
       </c>
       <c r="H45" t="n">
-        <v>102.6373094233546</v>
+        <v>102.5468376369431</v>
       </c>
       <c r="I45" t="n">
-        <v>65.30559603852697</v>
+        <v>64.98306946117427</v>
       </c>
       <c r="J45" t="n">
-        <v>32.94415618079528</v>
+        <v>32.05911860082658</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.12250269561245</v>
+        <v>11.92673027430385</v>
       </c>
       <c r="R45" t="n">
-        <v>83.97596335777129</v>
+        <v>83.39434727764331</v>
       </c>
       <c r="S45" t="n">
-        <v>153.2235430685718</v>
+        <v>153.0495430615541</v>
       </c>
       <c r="T45" t="n">
-        <v>196.158967617039</v>
+        <v>196.1212094100852</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8759996912395</v>
+        <v>123.9724923012151</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>130.8976960522238</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>149.7920920637181</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>116.0169187250624</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.1578004903565</v>
+        <v>166.154803657271</v>
       </c>
       <c r="H46" t="n">
-        <v>154.8194549346757</v>
+        <v>154.7496299681496</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3945140574189</v>
+        <v>130.1583371767766</v>
       </c>
       <c r="J46" t="n">
-        <v>68.08967546456512</v>
+        <v>67.53443132890757</v>
       </c>
       <c r="K46" t="n">
-        <v>32.21302240374355</v>
+        <v>31.30058572459947</v>
       </c>
       <c r="L46" t="n">
-        <v>11.01370165446878</v>
+        <v>9.846096846118073</v>
       </c>
       <c r="M46" t="n">
-        <v>8.321209195899911</v>
+        <v>7.090133635768353</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1864545855455191</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>20.69049262225904</v>
+        <v>19.58043272497171</v>
       </c>
       <c r="P46" t="n">
-        <v>36.95880712885041</v>
+        <v>36.00895911794801</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.73763295589968</v>
+        <v>81.08000742760579</v>
       </c>
       <c r="R46" t="n">
-        <v>139.8306397259526</v>
+        <v>139.4775167357298</v>
       </c>
       <c r="S46" t="n">
-        <v>209.4965626719535</v>
+        <v>209.3596971700819</v>
       </c>
       <c r="T46" t="n">
-        <v>224.3856433554809</v>
+        <v>224.3520873899724</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2735832364126</v>
+        <v>286.2731548623848</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358051.8747375344</v>
+        <v>358051.8747375345</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>383142.0922340969</v>
+        <v>358051.8747375345</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>383142.0922340969</v>
+        <v>383142.0922340968</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>387392.583611345</v>
+        <v>391557.1809093736</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>387392.5836113452</v>
+        <v>391557.1809093739</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>387392.5836113452</v>
+        <v>391557.1809093739</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>387392.5836113452</v>
+        <v>391557.1809093739</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>387392.583611345</v>
+        <v>391557.1809093739</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>387392.5836113452</v>
+        <v>391557.1809093737</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>387392.5836113452</v>
+        <v>391557.180909374</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387392.5836113452</v>
+        <v>391557.1809093737</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>66735.59833537068</v>
       </c>
       <c r="E2" t="n">
-        <v>89512.96868438352</v>
+        <v>89512.96868438349</v>
       </c>
       <c r="F2" t="n">
-        <v>95785.52305852411</v>
+        <v>89512.96868438351</v>
       </c>
       <c r="G2" t="n">
-        <v>95785.52305852412</v>
+        <v>95785.52305852409</v>
       </c>
       <c r="H2" t="n">
-        <v>95785.52305852412</v>
+        <v>95785.52305852409</v>
       </c>
       <c r="I2" t="n">
-        <v>96848.14590283622</v>
+        <v>97889.29522734341</v>
       </c>
       <c r="J2" t="n">
-        <v>96848.14590283622</v>
+        <v>97889.29522734339</v>
       </c>
       <c r="K2" t="n">
-        <v>96848.1459028362</v>
+        <v>97889.29522734338</v>
       </c>
       <c r="L2" t="n">
-        <v>96848.14590283622</v>
+        <v>97889.29522734339</v>
       </c>
       <c r="M2" t="n">
-        <v>96848.1459028362</v>
+        <v>97889.29522734341</v>
       </c>
       <c r="N2" t="n">
-        <v>96848.14590283622</v>
+        <v>97889.29522734339</v>
       </c>
       <c r="O2" t="n">
-        <v>96848.14590283622</v>
+        <v>97889.29522734339</v>
       </c>
       <c r="P2" t="n">
-        <v>96848.1459028362</v>
+        <v>97889.29522734339</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>111004.8835288966</v>
       </c>
       <c r="F3" t="n">
-        <v>26699.26581026791</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>26039.63944955212</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4586.112244602655</v>
+        <v>9080.280680978502</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>15950.37462783567</v>
       </c>
       <c r="N3" t="n">
-        <v>7019.524037838835</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6896.975340529846</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>46.37862202960973</v>
       </c>
       <c r="F4" t="n">
-        <v>67.14558386063672</v>
+        <v>46.37862202960973</v>
       </c>
       <c r="G4" t="n">
         <v>67.14558386063672</v>
@@ -26438,28 +26438,28 @@
         <v>67.14558386063672</v>
       </c>
       <c r="I4" t="n">
-        <v>70.52640808052374</v>
+        <v>73.87600503728831</v>
       </c>
       <c r="J4" t="n">
-        <v>70.52640808052374</v>
+        <v>73.87600503728832</v>
       </c>
       <c r="K4" t="n">
-        <v>70.52640808052374</v>
+        <v>73.87600503728832</v>
       </c>
       <c r="L4" t="n">
-        <v>70.52640808052374</v>
+        <v>73.87600503728831</v>
       </c>
       <c r="M4" t="n">
-        <v>70.52640808052374</v>
+        <v>73.87600503728831</v>
       </c>
       <c r="N4" t="n">
-        <v>70.52640808052374</v>
+        <v>73.87600503728831</v>
       </c>
       <c r="O4" t="n">
-        <v>70.52640808052374</v>
+        <v>73.87600503728832</v>
       </c>
       <c r="P4" t="n">
-        <v>70.52640808052374</v>
+        <v>73.87600503728831</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>13357.13748840697</v>
       </c>
       <c r="F5" t="n">
-        <v>15609.51966583622</v>
+        <v>13357.13748840697</v>
       </c>
       <c r="G5" t="n">
         <v>15609.51966583622</v>
@@ -26490,28 +26490,28 @@
         <v>15609.51966583622</v>
       </c>
       <c r="I5" t="n">
-        <v>15990.08105077979</v>
+        <v>16363.01282241921</v>
       </c>
       <c r="J5" t="n">
-        <v>15990.08105077979</v>
+        <v>16363.01282241921</v>
       </c>
       <c r="K5" t="n">
-        <v>15990.08105077979</v>
+        <v>16363.01282241921</v>
       </c>
       <c r="L5" t="n">
-        <v>15990.08105077979</v>
+        <v>16363.01282241921</v>
       </c>
       <c r="M5" t="n">
-        <v>15990.08105077979</v>
+        <v>16363.01282241921</v>
       </c>
       <c r="N5" t="n">
-        <v>15990.08105077979</v>
+        <v>16363.01282241921</v>
       </c>
       <c r="O5" t="n">
-        <v>15990.08105077979</v>
+        <v>16363.01282241921</v>
       </c>
       <c r="P5" t="n">
-        <v>15990.08105077979</v>
+        <v>16363.01282241921</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297807.2038425216</v>
+        <v>-283623.909627849</v>
       </c>
       <c r="C6" t="n">
-        <v>10376.67997803275</v>
+        <v>24559.9741927053</v>
       </c>
       <c r="D6" t="n">
-        <v>10376.67997803275</v>
+        <v>24559.9741927053</v>
       </c>
       <c r="E6" t="n">
-        <v>-49027.69172410076</v>
+        <v>-36308.65703186478</v>
       </c>
       <c r="F6" t="n">
-        <v>39725.37082756114</v>
+        <v>74696.22649703181</v>
       </c>
       <c r="G6" t="n">
-        <v>66424.63663782904</v>
+        <v>52700.7962421753</v>
       </c>
       <c r="H6" t="n">
-        <v>66424.63663782904</v>
+        <v>78740.43569172741</v>
       </c>
       <c r="I6" t="n">
-        <v>62593.1066601116</v>
+        <v>71018.73054587159</v>
       </c>
       <c r="J6" t="n">
-        <v>67179.21890471426</v>
+        <v>80099.01122685005</v>
       </c>
       <c r="K6" t="n">
-        <v>67179.21890471423</v>
+        <v>80099.01122685005</v>
       </c>
       <c r="L6" t="n">
-        <v>67179.21890471426</v>
+        <v>80099.01122685005</v>
       </c>
       <c r="M6" t="n">
-        <v>51228.84427687858</v>
+        <v>64148.6365990144</v>
       </c>
       <c r="N6" t="n">
-        <v>60159.6948668754</v>
+        <v>80099.01122685005</v>
       </c>
       <c r="O6" t="n">
-        <v>67179.21890471426</v>
+        <v>73202.03588632021</v>
       </c>
       <c r="P6" t="n">
-        <v>67179.21890471423</v>
+        <v>80099.01122685005</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>434.2025584301815</v>
       </c>
       <c r="F3" t="n">
-        <v>457.5913187641655</v>
+        <v>434.2025584301815</v>
       </c>
       <c r="G3" t="n">
         <v>457.5913187641655</v>
@@ -26758,28 +26758,28 @@
         <v>457.5913187641655</v>
       </c>
       <c r="I3" t="n">
-        <v>462.0355541294447</v>
+        <v>466.390690078411</v>
       </c>
       <c r="J3" t="n">
-        <v>462.0355541294447</v>
+        <v>466.390690078411</v>
       </c>
       <c r="K3" t="n">
-        <v>462.0355541294447</v>
+        <v>466.390690078411</v>
       </c>
       <c r="L3" t="n">
-        <v>462.0355541294447</v>
+        <v>466.390690078411</v>
       </c>
       <c r="M3" t="n">
-        <v>462.0355541294447</v>
+        <v>466.390690078411</v>
       </c>
       <c r="N3" t="n">
-        <v>462.0355541294447</v>
+        <v>466.390690078411</v>
       </c>
       <c r="O3" t="n">
-        <v>462.0355541294447</v>
+        <v>466.390690078411</v>
       </c>
       <c r="P3" t="n">
-        <v>462.0355541294447</v>
+        <v>466.390690078411</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>64.00529135902983</v>
       </c>
       <c r="F4" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="G4" t="n">
         <v>92.6649492891022</v>
@@ -26810,28 +26810,28 @@
         <v>92.6649492891022</v>
       </c>
       <c r="I4" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="J4" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="K4" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="L4" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="M4" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="N4" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O4" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="P4" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
     </row>
   </sheetData>
@@ -26971,16 +26971,16 @@
         <v>114.3813399321389</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>23.38876033398401</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.444235365279212</v>
+        <v>8.799371314245434</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>64.00529135902983</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>28.65965793007237</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.66574101941589</v>
+        <v>9.237941808099265</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>28.65965793007237</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>28.65965793007237</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>155.6054496757214</v>
+        <v>202.559671138904</v>
       </c>
       <c r="M12" t="n">
         <v>206.1393252810481</v>
@@ -31855,10 +31855,10 @@
         <v>195.3470034423631</v>
       </c>
       <c r="O12" t="n">
-        <v>206.6015358034743</v>
+        <v>204.0154634253317</v>
       </c>
       <c r="P12" t="n">
-        <v>178.3425564993702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>119.2172760429434</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.839563090509207</v>
+        <v>1.745537923337412</v>
       </c>
       <c r="H14" t="n">
-        <v>18.83942550067742</v>
+        <v>17.87649025737927</v>
       </c>
       <c r="I14" t="n">
-        <v>70.91975604685626</v>
+        <v>67.29485078946563</v>
       </c>
       <c r="J14" t="n">
-        <v>156.1306178531059</v>
+        <v>148.1503493208588</v>
       </c>
       <c r="K14" t="n">
-        <v>233.9993234743607</v>
+        <v>222.0389696157315</v>
       </c>
       <c r="L14" t="n">
-        <v>290.2968524055319</v>
+        <v>275.4589758370689</v>
       </c>
       <c r="M14" t="n">
-        <v>323.011182516375</v>
+        <v>294.3515245863026</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0780128856931</v>
+        <v>293.4183549556208</v>
       </c>
       <c r="O14" t="n">
-        <v>309.9456856660333</v>
+        <v>294.1035027807166</v>
       </c>
       <c r="P14" t="n">
-        <v>264.5314718690873</v>
+        <v>251.0105352983242</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.6521186902262</v>
+        <v>188.4984584188031</v>
       </c>
       <c r="R14" t="n">
-        <v>115.5544549841991</v>
+        <v>109.6481465768438</v>
       </c>
       <c r="S14" t="n">
-        <v>41.91904392497859</v>
+        <v>39.77644542805131</v>
       </c>
       <c r="T14" t="n">
-        <v>8.052687428704056</v>
+        <v>7.641092259409524</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1396430338669929</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9842530252663183</v>
+        <v>0.9339451256800131</v>
       </c>
       <c r="H15" t="n">
-        <v>9.505812112440497</v>
+        <v>9.019943713804338</v>
       </c>
       <c r="I15" t="n">
-        <v>33.88765898395</v>
+        <v>32.1555668271408</v>
       </c>
       <c r="J15" t="n">
-        <v>92.99032639149897</v>
+        <v>88.2373331240051</v>
       </c>
       <c r="K15" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>213.7080965605662</v>
+        <v>202.559671138904</v>
       </c>
       <c r="M15" t="n">
-        <v>228.5546982615667</v>
+        <v>206.1393252810481</v>
       </c>
       <c r="N15" t="n">
-        <v>224.0066613724355</v>
+        <v>195.3470034423631</v>
       </c>
       <c r="O15" t="n">
-        <v>234.1788327264121</v>
+        <v>204.0154634253317</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.6390352953988</v>
+        <v>119.2172760429434</v>
       </c>
       <c r="R15" t="n">
-        <v>61.11002555118424</v>
+        <v>57.98652280318539</v>
       </c>
       <c r="S15" t="n">
-        <v>18.28206825439849</v>
+        <v>17.34762108445111</v>
       </c>
       <c r="T15" t="n">
-        <v>3.967230395700641</v>
+        <v>3.764454256578648</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.06144375826842194</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.7829882201199994</v>
       </c>
       <c r="H16" t="n">
-        <v>7.336464094284494</v>
+        <v>6.961477084339636</v>
       </c>
       <c r="I16" t="n">
-        <v>24.81495217166983</v>
+        <v>23.5465912014269</v>
       </c>
       <c r="J16" t="n">
-        <v>58.33914239391663</v>
+        <v>55.35726716248395</v>
       </c>
       <c r="K16" t="n">
-        <v>95.8691320296071</v>
+        <v>90.96899502848719</v>
       </c>
       <c r="L16" t="n">
-        <v>122.6794824109699</v>
+        <v>116.4089941076588</v>
       </c>
       <c r="M16" t="n">
-        <v>129.3483132696804</v>
+        <v>122.7369625411741</v>
       </c>
       <c r="N16" t="n">
-        <v>126.272699487823</v>
+        <v>119.8185519025451</v>
       </c>
       <c r="O16" t="n">
-        <v>116.6332758056598</v>
+        <v>110.6718258765978</v>
       </c>
       <c r="P16" t="n">
-        <v>99.79991647276155</v>
+        <v>94.6988661861497</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.09628913338899</v>
+        <v>65.56458632295741</v>
       </c>
       <c r="R16" t="n">
-        <v>37.102404305042</v>
+        <v>35.20599760648651</v>
       </c>
       <c r="S16" t="n">
-        <v>14.38036980444106</v>
+        <v>13.64534925427307</v>
       </c>
       <c r="T16" t="n">
-        <v>3.52570360359275</v>
+        <v>3.345495122330906</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04270844837018183</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,7 +32320,7 @@
         <v>158.9352790843423</v>
       </c>
       <c r="L18" t="n">
-        <v>153.489060191812</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M18" t="n">
         <v>234.7989832111205</v>
@@ -32329,10 +32329,10 @@
         <v>224.0066613724355</v>
       </c>
       <c r="O18" t="n">
-        <v>234.1788327264121</v>
+        <v>227.9345477768583</v>
       </c>
       <c r="P18" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>125.6390352953988</v>
@@ -32563,10 +32563,10 @@
         <v>234.7989832111205</v>
       </c>
       <c r="N21" t="n">
-        <v>217.7623764228817</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O21" t="n">
-        <v>234.1788327264121</v>
+        <v>227.9345477768583</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.85742936333445</v>
+        <v>1.874937447551399</v>
       </c>
       <c r="H23" t="n">
-        <v>19.02239846724894</v>
+        <v>19.20170313473577</v>
       </c>
       <c r="I23" t="n">
-        <v>71.60854552995144</v>
+        <v>72.28352594672539</v>
       </c>
       <c r="J23" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891157</v>
       </c>
       <c r="K23" t="n">
-        <v>236.2719803762547</v>
+        <v>238.4990743439665</v>
       </c>
       <c r="L23" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544677</v>
       </c>
       <c r="M23" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873599</v>
       </c>
       <c r="N23" t="n">
-        <v>326.743753905109</v>
+        <v>331.3159546937924</v>
       </c>
       <c r="O23" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661261</v>
       </c>
       <c r="P23" t="n">
-        <v>267.1006642341982</v>
+        <v>269.6183486297009</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892663</v>
       </c>
       <c r="R23" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S23" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607756</v>
       </c>
       <c r="T23" t="n">
-        <v>8.130897037996558</v>
+        <v>8.207538676656256</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.1499949958041119</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9938123239765415</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H24" t="n">
-        <v>9.598134813141863</v>
+        <v>9.688606599553406</v>
       </c>
       <c r="I24" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882572</v>
       </c>
       <c r="J24" t="n">
-        <v>93.89347048587142</v>
+        <v>94.77850806584011</v>
       </c>
       <c r="K24" t="n">
-        <v>160.4788961922997</v>
+        <v>161.9915663831779</v>
       </c>
       <c r="L24" t="n">
-        <v>215.7836802563978</v>
+        <v>217.8176520031296</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4647242305364</v>
+        <v>244.0369250192198</v>
       </c>
       <c r="N24" t="n">
-        <v>169.8773253450067</v>
+        <v>233.2446031805348</v>
       </c>
       <c r="O24" t="n">
-        <v>236.4532330647169</v>
+        <v>238.6820355158826</v>
       </c>
       <c r="P24" t="n">
-        <v>189.7745656196959</v>
+        <v>134.1637103760408</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.8592713904091</v>
+        <v>128.0550438117177</v>
       </c>
       <c r="R24" t="n">
-        <v>61.70354060619266</v>
+        <v>62.28515668632064</v>
       </c>
       <c r="S24" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228367</v>
       </c>
       <c r="T24" t="n">
-        <v>4.005761077782638</v>
+        <v>4.04351928473641</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06538238973529881</v>
+        <v>0.06599868255826573</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8331788681022773</v>
+        <v>0.8410323919446754</v>
       </c>
       <c r="H25" t="n">
-        <v>7.407717572763889</v>
+        <v>7.477542539289938</v>
       </c>
       <c r="I25" t="n">
-        <v>25.0559608698394</v>
+        <v>25.2921377504817</v>
       </c>
       <c r="J25" t="n">
-        <v>58.905745974831</v>
+        <v>59.46099011048855</v>
       </c>
       <c r="K25" t="n">
-        <v>96.80023576679183</v>
+        <v>97.71267244593591</v>
       </c>
       <c r="L25" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351202</v>
       </c>
       <c r="M25" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118367</v>
       </c>
       <c r="N25" t="n">
-        <v>127.4990898796877</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O25" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P25" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311996</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.76736867354616</v>
+        <v>70.42499420184005</v>
       </c>
       <c r="R25" t="n">
-        <v>37.46275165121693</v>
+        <v>37.81587464143967</v>
       </c>
       <c r="S25" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689038</v>
       </c>
       <c r="T25" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309067</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04544612007830609</v>
+        <v>0.04587449410607326</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.85742936333445</v>
+        <v>1.874937447551399</v>
       </c>
       <c r="H26" t="n">
-        <v>19.02239846724894</v>
+        <v>19.20170313473577</v>
       </c>
       <c r="I26" t="n">
-        <v>71.60854552995144</v>
+        <v>72.28352594672539</v>
       </c>
       <c r="J26" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891157</v>
       </c>
       <c r="K26" t="n">
-        <v>236.2719803762547</v>
+        <v>238.4990743439665</v>
       </c>
       <c r="L26" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544677</v>
       </c>
       <c r="M26" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873599</v>
       </c>
       <c r="N26" t="n">
-        <v>326.743753905109</v>
+        <v>331.3159546937924</v>
       </c>
       <c r="O26" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661261</v>
       </c>
       <c r="P26" t="n">
-        <v>267.1006642341982</v>
+        <v>269.6183486297009</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892663</v>
       </c>
       <c r="R26" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S26" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607756</v>
       </c>
       <c r="T26" t="n">
-        <v>8.130897037996558</v>
+        <v>8.207538676656256</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.1499949958041119</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9938123239765415</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H27" t="n">
-        <v>9.598134813141863</v>
+        <v>9.688606599553406</v>
       </c>
       <c r="I27" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882572</v>
       </c>
       <c r="J27" t="n">
-        <v>93.89347048587142</v>
+        <v>94.77850806584011</v>
       </c>
       <c r="K27" t="n">
-        <v>160.4788961922997</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>215.7836802563978</v>
+        <v>217.8176520031296</v>
       </c>
       <c r="M27" t="n">
-        <v>236.4698053890574</v>
+        <v>244.0369250192198</v>
       </c>
       <c r="N27" t="n">
-        <v>228.6724023918514</v>
+        <v>199.995064883943</v>
       </c>
       <c r="O27" t="n">
-        <v>236.4532330647169</v>
+        <v>238.6820355158826</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>191.5633760814515</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.8592713904091</v>
+        <v>128.0550438117177</v>
       </c>
       <c r="R27" t="n">
-        <v>61.70354060619266</v>
+        <v>62.28515668632064</v>
       </c>
       <c r="S27" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228367</v>
       </c>
       <c r="T27" t="n">
-        <v>4.005761077782638</v>
+        <v>4.04351928473641</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06538238973529881</v>
+        <v>0.06599868255826573</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8331788681022773</v>
+        <v>0.8410323919446754</v>
       </c>
       <c r="H28" t="n">
-        <v>7.407717572763889</v>
+        <v>7.477542539289938</v>
       </c>
       <c r="I28" t="n">
-        <v>25.0559608698394</v>
+        <v>25.2921377504817</v>
       </c>
       <c r="J28" t="n">
-        <v>58.905745974831</v>
+        <v>59.46099011048855</v>
       </c>
       <c r="K28" t="n">
-        <v>96.80023576679183</v>
+        <v>97.71267244593591</v>
       </c>
       <c r="L28" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351202</v>
       </c>
       <c r="M28" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118367</v>
       </c>
       <c r="N28" t="n">
-        <v>127.4990898796877</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O28" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P28" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311996</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.76736867354616</v>
+        <v>70.42499420184005</v>
       </c>
       <c r="R28" t="n">
-        <v>37.46275165121693</v>
+        <v>37.81587464143967</v>
       </c>
       <c r="S28" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689038</v>
       </c>
       <c r="T28" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309067</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04544612007830609</v>
+        <v>0.04587449410607326</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.85742936333445</v>
+        <v>1.874937447551399</v>
       </c>
       <c r="H29" t="n">
-        <v>19.02239846724894</v>
+        <v>19.20170313473577</v>
       </c>
       <c r="I29" t="n">
-        <v>71.60854552995144</v>
+        <v>72.28352594672539</v>
       </c>
       <c r="J29" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891157</v>
       </c>
       <c r="K29" t="n">
-        <v>236.2719803762547</v>
+        <v>238.4990743439665</v>
       </c>
       <c r="L29" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544677</v>
       </c>
       <c r="M29" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873599</v>
       </c>
       <c r="N29" t="n">
-        <v>326.743753905109</v>
+        <v>331.3159546937924</v>
       </c>
       <c r="O29" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661261</v>
       </c>
       <c r="P29" t="n">
-        <v>267.1006642341982</v>
+        <v>269.6183486297009</v>
       </c>
       <c r="Q29" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892663</v>
       </c>
       <c r="R29" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S29" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607756</v>
       </c>
       <c r="T29" t="n">
-        <v>8.130897037996558</v>
+        <v>8.207538676656256</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.1499949958041119</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9938123239765415</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H30" t="n">
-        <v>9.598134813141863</v>
+        <v>9.688606599553406</v>
       </c>
       <c r="I30" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882572</v>
       </c>
       <c r="J30" t="n">
-        <v>93.89347048587142</v>
+        <v>94.77850806584011</v>
       </c>
       <c r="K30" t="n">
-        <v>160.4788961922997</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>215.7836802563978</v>
+        <v>217.8176520031296</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4647242305364</v>
+        <v>244.0369250192198</v>
       </c>
       <c r="N30" t="n">
-        <v>225.6774835503724</v>
+        <v>199.995064883943</v>
       </c>
       <c r="O30" t="n">
-        <v>236.4532330647169</v>
+        <v>238.6820355158826</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>191.5633760814515</v>
       </c>
       <c r="Q30" t="n">
-        <v>126.8592713904091</v>
+        <v>128.0550438117177</v>
       </c>
       <c r="R30" t="n">
-        <v>61.70354060619266</v>
+        <v>62.28515668632064</v>
       </c>
       <c r="S30" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228367</v>
       </c>
       <c r="T30" t="n">
-        <v>4.005761077782638</v>
+        <v>4.04351928473641</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06538238973529881</v>
+        <v>0.06599868255826573</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8331788681022773</v>
+        <v>0.8410323919446754</v>
       </c>
       <c r="H31" t="n">
-        <v>7.407717572763889</v>
+        <v>7.477542539289938</v>
       </c>
       <c r="I31" t="n">
-        <v>25.0559608698394</v>
+        <v>25.2921377504817</v>
       </c>
       <c r="J31" t="n">
-        <v>58.905745974831</v>
+        <v>59.46099011048855</v>
       </c>
       <c r="K31" t="n">
-        <v>96.80023576679183</v>
+        <v>97.71267244593591</v>
       </c>
       <c r="L31" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351202</v>
       </c>
       <c r="M31" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118367</v>
       </c>
       <c r="N31" t="n">
-        <v>127.4990898796877</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O31" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P31" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311996</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.76736867354616</v>
+        <v>70.42499420184005</v>
       </c>
       <c r="R31" t="n">
-        <v>37.46275165121693</v>
+        <v>37.81587464143967</v>
       </c>
       <c r="S31" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689038</v>
       </c>
       <c r="T31" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309067</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04544612007830609</v>
+        <v>0.04587449410607326</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.85742936333445</v>
+        <v>1.874937447551399</v>
       </c>
       <c r="H32" t="n">
-        <v>19.02239846724894</v>
+        <v>19.20170313473577</v>
       </c>
       <c r="I32" t="n">
-        <v>71.60854552995144</v>
+        <v>72.28352594672539</v>
       </c>
       <c r="J32" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891157</v>
       </c>
       <c r="K32" t="n">
-        <v>236.2719803762547</v>
+        <v>238.4990743439665</v>
       </c>
       <c r="L32" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544677</v>
       </c>
       <c r="M32" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873599</v>
       </c>
       <c r="N32" t="n">
-        <v>326.743753905109</v>
+        <v>331.3159546937924</v>
       </c>
       <c r="O32" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661261</v>
       </c>
       <c r="P32" t="n">
-        <v>267.1006642341982</v>
+        <v>269.6183486297009</v>
       </c>
       <c r="Q32" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892663</v>
       </c>
       <c r="R32" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S32" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607756</v>
       </c>
       <c r="T32" t="n">
-        <v>8.130897037996558</v>
+        <v>8.207538676656256</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.1499949958041119</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9938123239765415</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H33" t="n">
-        <v>9.598134813141863</v>
+        <v>9.688606599553406</v>
       </c>
       <c r="I33" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882572</v>
       </c>
       <c r="J33" t="n">
-        <v>93.89347048587142</v>
+        <v>94.77850806584011</v>
       </c>
       <c r="K33" t="n">
-        <v>160.4788961922997</v>
+        <v>161.9915663831779</v>
       </c>
       <c r="L33" t="n">
-        <v>215.7836802563978</v>
+        <v>217.8176520031296</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4647242305364</v>
+        <v>244.0369250192198</v>
       </c>
       <c r="N33" t="n">
-        <v>169.8773253450067</v>
+        <v>233.2446031805348</v>
       </c>
       <c r="O33" t="n">
-        <v>236.4532330647169</v>
+        <v>181.2823698104719</v>
       </c>
       <c r="P33" t="n">
-        <v>189.7745656196959</v>
+        <v>191.5633760814515</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.8592713904091</v>
+        <v>128.0550438117177</v>
       </c>
       <c r="R33" t="n">
-        <v>61.70354060619266</v>
+        <v>62.28515668632064</v>
       </c>
       <c r="S33" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228367</v>
       </c>
       <c r="T33" t="n">
-        <v>4.005761077782638</v>
+        <v>4.04351928473641</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06538238973529881</v>
+        <v>0.06599868255826573</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8331788681022773</v>
+        <v>0.8410323919446754</v>
       </c>
       <c r="H34" t="n">
-        <v>7.407717572763889</v>
+        <v>7.477542539289938</v>
       </c>
       <c r="I34" t="n">
-        <v>25.0559608698394</v>
+        <v>25.2921377504817</v>
       </c>
       <c r="J34" t="n">
-        <v>58.905745974831</v>
+        <v>59.46099011048855</v>
       </c>
       <c r="K34" t="n">
-        <v>96.80023576679183</v>
+        <v>97.71267244593591</v>
       </c>
       <c r="L34" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351202</v>
       </c>
       <c r="M34" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118367</v>
       </c>
       <c r="N34" t="n">
-        <v>127.4990898796877</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O34" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P34" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311996</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.76736867354616</v>
+        <v>70.42499420184005</v>
       </c>
       <c r="R34" t="n">
-        <v>37.46275165121693</v>
+        <v>37.81587464143967</v>
       </c>
       <c r="S34" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689038</v>
       </c>
       <c r="T34" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309067</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04544612007830609</v>
+        <v>0.04587449410607326</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85742936333445</v>
+        <v>1.874937447551399</v>
       </c>
       <c r="H35" t="n">
-        <v>19.02239846724894</v>
+        <v>19.20170313473577</v>
       </c>
       <c r="I35" t="n">
-        <v>71.60854552995144</v>
+        <v>72.28352594672539</v>
       </c>
       <c r="J35" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891157</v>
       </c>
       <c r="K35" t="n">
-        <v>236.2719803762547</v>
+        <v>238.4990743439665</v>
       </c>
       <c r="L35" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544677</v>
       </c>
       <c r="M35" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873599</v>
       </c>
       <c r="N35" t="n">
-        <v>326.743753905109</v>
+        <v>331.3159546937924</v>
       </c>
       <c r="O35" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661261</v>
       </c>
       <c r="P35" t="n">
-        <v>267.1006642341982</v>
+        <v>269.6183486297009</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892663</v>
       </c>
       <c r="R35" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S35" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607756</v>
       </c>
       <c r="T35" t="n">
-        <v>8.130897037996558</v>
+        <v>8.207538676656256</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.1499949958041119</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9938123239765415</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H36" t="n">
-        <v>9.598134813141863</v>
+        <v>9.688606599553406</v>
       </c>
       <c r="I36" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882572</v>
       </c>
       <c r="J36" t="n">
-        <v>93.89347048587142</v>
+        <v>94.77850806584011</v>
       </c>
       <c r="K36" t="n">
-        <v>160.4788961922997</v>
+        <v>161.9915663831779</v>
       </c>
       <c r="L36" t="n">
-        <v>215.7836802563978</v>
+        <v>217.8176520031296</v>
       </c>
       <c r="M36" t="n">
-        <v>180.6696471836917</v>
+        <v>186.637259313809</v>
       </c>
       <c r="N36" t="n">
-        <v>228.6724023918514</v>
+        <v>233.2446031805348</v>
       </c>
       <c r="O36" t="n">
-        <v>236.4532330647169</v>
+        <v>238.6820355158826</v>
       </c>
       <c r="P36" t="n">
-        <v>189.7745656196959</v>
+        <v>191.5633760814515</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.8592713904091</v>
+        <v>128.0550438117177</v>
       </c>
       <c r="R36" t="n">
-        <v>61.70354060619266</v>
+        <v>62.28515668632064</v>
       </c>
       <c r="S36" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228367</v>
       </c>
       <c r="T36" t="n">
-        <v>4.005761077782638</v>
+        <v>4.04351928473641</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06538238973529881</v>
+        <v>0.06599868255826573</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8331788681022773</v>
+        <v>0.8410323919446754</v>
       </c>
       <c r="H37" t="n">
-        <v>7.407717572763889</v>
+        <v>7.477542539289938</v>
       </c>
       <c r="I37" t="n">
-        <v>25.0559608698394</v>
+        <v>25.2921377504817</v>
       </c>
       <c r="J37" t="n">
-        <v>58.905745974831</v>
+        <v>59.46099011048855</v>
       </c>
       <c r="K37" t="n">
-        <v>96.80023576679183</v>
+        <v>97.71267244593591</v>
       </c>
       <c r="L37" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351202</v>
       </c>
       <c r="M37" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118367</v>
       </c>
       <c r="N37" t="n">
-        <v>127.4990898796877</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O37" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P37" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311996</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.76736867354616</v>
+        <v>70.42499420184005</v>
       </c>
       <c r="R37" t="n">
-        <v>37.46275165121693</v>
+        <v>37.81587464143967</v>
       </c>
       <c r="S37" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689038</v>
       </c>
       <c r="T37" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309067</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04544612007830609</v>
+        <v>0.04587449410607326</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.85742936333445</v>
+        <v>1.874937447551399</v>
       </c>
       <c r="H38" t="n">
-        <v>19.02239846724894</v>
+        <v>19.20170313473577</v>
       </c>
       <c r="I38" t="n">
-        <v>71.60854552995144</v>
+        <v>72.28352594672539</v>
       </c>
       <c r="J38" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891157</v>
       </c>
       <c r="K38" t="n">
-        <v>236.2719803762547</v>
+        <v>238.4990743439665</v>
       </c>
       <c r="L38" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544677</v>
       </c>
       <c r="M38" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873599</v>
       </c>
       <c r="N38" t="n">
-        <v>326.743753905109</v>
+        <v>331.3159546937924</v>
       </c>
       <c r="O38" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661261</v>
       </c>
       <c r="P38" t="n">
-        <v>267.1006642341982</v>
+        <v>269.6183486297009</v>
       </c>
       <c r="Q38" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892663</v>
       </c>
       <c r="R38" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S38" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607756</v>
       </c>
       <c r="T38" t="n">
-        <v>8.130897037996558</v>
+        <v>8.207538676656256</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.1499949958041119</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9938123239765415</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H39" t="n">
-        <v>9.598134813141863</v>
+        <v>9.688606599553406</v>
       </c>
       <c r="I39" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882572</v>
       </c>
       <c r="J39" t="n">
-        <v>93.89347048587142</v>
+        <v>94.77850806584011</v>
       </c>
       <c r="K39" t="n">
-        <v>160.4788961922997</v>
+        <v>161.9915663831779</v>
       </c>
       <c r="L39" t="n">
-        <v>215.7836802563978</v>
+        <v>217.8176520031296</v>
       </c>
       <c r="M39" t="n">
-        <v>180.6696471836917</v>
+        <v>244.0369250192198</v>
       </c>
       <c r="N39" t="n">
-        <v>228.6724023918514</v>
+        <v>233.2446031805348</v>
       </c>
       <c r="O39" t="n">
-        <v>236.4532330647169</v>
+        <v>181.2823698104719</v>
       </c>
       <c r="P39" t="n">
-        <v>189.7745656196959</v>
+        <v>191.5633760814515</v>
       </c>
       <c r="Q39" t="n">
-        <v>126.8592713904091</v>
+        <v>128.0550438117177</v>
       </c>
       <c r="R39" t="n">
-        <v>61.70354060619266</v>
+        <v>62.28515668632064</v>
       </c>
       <c r="S39" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228367</v>
       </c>
       <c r="T39" t="n">
-        <v>4.005761077782638</v>
+        <v>4.04351928473641</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06538238973529881</v>
+        <v>0.06599868255826573</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8331788681022773</v>
+        <v>0.8410323919446754</v>
       </c>
       <c r="H40" t="n">
-        <v>7.407717572763889</v>
+        <v>7.477542539289938</v>
       </c>
       <c r="I40" t="n">
-        <v>25.0559608698394</v>
+        <v>25.2921377504817</v>
       </c>
       <c r="J40" t="n">
-        <v>58.905745974831</v>
+        <v>59.46099011048855</v>
       </c>
       <c r="K40" t="n">
-        <v>96.80023576679183</v>
+        <v>97.71267244593591</v>
       </c>
       <c r="L40" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351202</v>
       </c>
       <c r="M40" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118367</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4990898796877</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O40" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P40" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311996</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.76736867354616</v>
+        <v>70.42499420184005</v>
       </c>
       <c r="R40" t="n">
-        <v>37.46275165121693</v>
+        <v>37.81587464143967</v>
       </c>
       <c r="S40" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689038</v>
       </c>
       <c r="T40" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309067</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04544612007830609</v>
+        <v>0.04587449410607326</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.85742936333445</v>
+        <v>1.874937447551399</v>
       </c>
       <c r="H41" t="n">
-        <v>19.02239846724894</v>
+        <v>19.20170313473577</v>
       </c>
       <c r="I41" t="n">
-        <v>71.60854552995144</v>
+        <v>72.28352594672539</v>
       </c>
       <c r="J41" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891157</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2719803762547</v>
+        <v>238.4990743439665</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544677</v>
       </c>
       <c r="M41" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873599</v>
       </c>
       <c r="N41" t="n">
-        <v>326.743753905109</v>
+        <v>331.3159546937924</v>
       </c>
       <c r="O41" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661261</v>
       </c>
       <c r="P41" t="n">
-        <v>267.1006642341982</v>
+        <v>269.6183486297009</v>
       </c>
       <c r="Q41" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892663</v>
       </c>
       <c r="R41" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S41" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607756</v>
       </c>
       <c r="T41" t="n">
-        <v>8.130897037996558</v>
+        <v>8.207538676656256</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.1499949958041119</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9938123239765415</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H42" t="n">
-        <v>9.598134813141863</v>
+        <v>9.688606599553406</v>
       </c>
       <c r="I42" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882572</v>
       </c>
       <c r="J42" t="n">
-        <v>93.89347048587142</v>
+        <v>94.77850806584011</v>
       </c>
       <c r="K42" t="n">
-        <v>160.4788961922997</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>215.7836802563978</v>
+        <v>217.8176520031296</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4647242305364</v>
+        <v>244.0369250192198</v>
       </c>
       <c r="N42" t="n">
-        <v>228.6724023918514</v>
+        <v>199.995064883943</v>
       </c>
       <c r="O42" t="n">
-        <v>177.6581560178722</v>
+        <v>238.6820355158826</v>
       </c>
       <c r="P42" t="n">
-        <v>189.7745656196959</v>
+        <v>191.5633760814515</v>
       </c>
       <c r="Q42" t="n">
-        <v>126.8592713904091</v>
+        <v>128.0550438117177</v>
       </c>
       <c r="R42" t="n">
-        <v>61.70354060619266</v>
+        <v>62.28515668632064</v>
       </c>
       <c r="S42" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228367</v>
       </c>
       <c r="T42" t="n">
-        <v>4.005761077782638</v>
+        <v>4.04351928473641</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06538238973529881</v>
+        <v>0.06599868255826573</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8331788681022773</v>
+        <v>0.8410323919446754</v>
       </c>
       <c r="H43" t="n">
-        <v>7.407717572763889</v>
+        <v>7.477542539289938</v>
       </c>
       <c r="I43" t="n">
-        <v>25.0559608698394</v>
+        <v>25.2921377504817</v>
       </c>
       <c r="J43" t="n">
-        <v>58.905745974831</v>
+        <v>59.46099011048855</v>
       </c>
       <c r="K43" t="n">
-        <v>96.80023576679183</v>
+        <v>97.71267244593591</v>
       </c>
       <c r="L43" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351202</v>
       </c>
       <c r="M43" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118367</v>
       </c>
       <c r="N43" t="n">
-        <v>127.4990898796877</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O43" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P43" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311996</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.76736867354616</v>
+        <v>70.42499420184005</v>
       </c>
       <c r="R43" t="n">
-        <v>37.46275165121693</v>
+        <v>37.81587464143967</v>
       </c>
       <c r="S43" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689038</v>
       </c>
       <c r="T43" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309067</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04544612007830609</v>
+        <v>0.04587449410607326</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.85742936333445</v>
+        <v>1.874937447551399</v>
       </c>
       <c r="H44" t="n">
-        <v>19.02239846724894</v>
+        <v>19.20170313473577</v>
       </c>
       <c r="I44" t="n">
-        <v>71.60854552995144</v>
+        <v>72.28352594672539</v>
       </c>
       <c r="J44" t="n">
-        <v>157.6469954263074</v>
+        <v>159.1329721891157</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2719803762547</v>
+        <v>238.4990743439665</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1162842544014</v>
+        <v>295.8791912544677</v>
       </c>
       <c r="M44" t="n">
-        <v>326.1483436946004</v>
+        <v>329.2226100873599</v>
       </c>
       <c r="N44" t="n">
-        <v>326.743753905109</v>
+        <v>331.3159546937924</v>
       </c>
       <c r="O44" t="n">
-        <v>312.9559516415175</v>
+        <v>315.9058668661261</v>
       </c>
       <c r="P44" t="n">
-        <v>267.1006642341982</v>
+        <v>269.6183486297009</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.5814751597832</v>
+        <v>202.4721512892663</v>
       </c>
       <c r="R44" t="n">
-        <v>116.6767472445577</v>
+        <v>117.7765394397507</v>
       </c>
       <c r="S44" t="n">
-        <v>42.32617161698381</v>
+        <v>42.72513708607756</v>
       </c>
       <c r="T44" t="n">
-        <v>8.130897037996558</v>
+        <v>8.207538676656256</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1485943490667559</v>
+        <v>0.1499949958041119</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9938123239765415</v>
+        <v>1.003179974885639</v>
       </c>
       <c r="H45" t="n">
-        <v>9.598134813141863</v>
+        <v>9.688606599553406</v>
       </c>
       <c r="I45" t="n">
-        <v>34.21678396147303</v>
+        <v>34.53931053882572</v>
       </c>
       <c r="J45" t="n">
-        <v>93.89347048587142</v>
+        <v>94.77850806584011</v>
       </c>
       <c r="K45" t="n">
-        <v>160.4788961922997</v>
+        <v>161.9915663831779</v>
       </c>
       <c r="L45" t="n">
-        <v>215.7836802563978</v>
+        <v>217.8176520031296</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4647242305364</v>
+        <v>244.0369250192198</v>
       </c>
       <c r="N45" t="n">
-        <v>169.8773253450067</v>
+        <v>233.2446031805348</v>
       </c>
       <c r="O45" t="n">
-        <v>236.4532330647169</v>
+        <v>238.6820355158826</v>
       </c>
       <c r="P45" t="n">
-        <v>189.7745656196959</v>
+        <v>134.1637103760408</v>
       </c>
       <c r="Q45" t="n">
-        <v>126.8592713904091</v>
+        <v>128.0550438117177</v>
       </c>
       <c r="R45" t="n">
-        <v>61.70354060619266</v>
+        <v>62.28515668632064</v>
       </c>
       <c r="S45" t="n">
-        <v>18.45962803526601</v>
+        <v>18.63362804228367</v>
       </c>
       <c r="T45" t="n">
-        <v>4.005761077782638</v>
+        <v>4.04351928473641</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06538238973529881</v>
+        <v>0.06599868255826573</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8331788681022773</v>
+        <v>0.8410323919446754</v>
       </c>
       <c r="H46" t="n">
-        <v>7.407717572763889</v>
+        <v>7.477542539289938</v>
       </c>
       <c r="I46" t="n">
-        <v>25.0559608698394</v>
+        <v>25.2921377504817</v>
       </c>
       <c r="J46" t="n">
-        <v>58.905745974831</v>
+        <v>59.46099011048855</v>
       </c>
       <c r="K46" t="n">
-        <v>96.80023576679183</v>
+        <v>97.71267244593591</v>
       </c>
       <c r="L46" t="n">
-        <v>123.8709746267695</v>
+        <v>125.0385794351202</v>
       </c>
       <c r="M46" t="n">
-        <v>130.6045747517051</v>
+        <v>131.8356503118367</v>
       </c>
       <c r="N46" t="n">
-        <v>127.4990898796877</v>
+        <v>128.7008932145885</v>
       </c>
       <c r="O46" t="n">
-        <v>117.7660458295837</v>
+        <v>118.8761057268711</v>
       </c>
       <c r="P46" t="n">
-        <v>100.7691969202972</v>
+        <v>101.7190449311996</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.76736867354616</v>
+        <v>70.42499420184005</v>
       </c>
       <c r="R46" t="n">
-        <v>37.46275165121693</v>
+        <v>37.81587464143967</v>
       </c>
       <c r="S46" t="n">
-        <v>14.52003536501877</v>
+        <v>14.65690086689038</v>
       </c>
       <c r="T46" t="n">
-        <v>3.559946072800638</v>
+        <v>3.593502038309067</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04544612007830609</v>
+        <v>0.04587449410607326</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>17.05106989584721</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="M12" t="n">
         <v>64.00529135902983</v>
@@ -35503,10 +35503,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="O12" t="n">
-        <v>64.00529135902983</v>
+        <v>61.41921898088722</v>
       </c>
       <c r="P12" t="n">
-        <v>44.36814908503999</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13.90947242938014</v>
+        <v>1.949118570750926</v>
       </c>
       <c r="L14" t="n">
-        <v>54.53043743554463</v>
+        <v>39.69256086708162</v>
       </c>
       <c r="M14" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="N14" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="O14" t="n">
-        <v>79.84747424434661</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="P14" t="n">
-        <v>33.29847611381774</v>
+        <v>19.77753954305464</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>75.15371678069201</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="M15" t="n">
-        <v>86.42066433954837</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="N15" t="n">
-        <v>92.6649492891022</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="O15" t="n">
-        <v>91.5825882819677</v>
+        <v>61.41921898088722</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>21.09384010998329</v>
       </c>
       <c r="L18" t="n">
-        <v>14.93468041193783</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M18" t="n">
         <v>92.6649492891022</v>
@@ -35977,10 +35977,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="O18" t="n">
-        <v>91.5825882819677</v>
+        <v>85.33830333241384</v>
       </c>
       <c r="P18" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="N21" t="n">
-        <v>86.42066433954837</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O21" t="n">
-        <v>91.5825882819677</v>
+        <v>85.33830333241384</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>16.18212933127415</v>
+        <v>18.40922329898598</v>
       </c>
       <c r="L23" t="n">
-        <v>57.34986928441418</v>
+        <v>60.1127762844805</v>
       </c>
       <c r="M23" t="n">
-        <v>95.80211046732771</v>
+        <v>98.87637686008716</v>
       </c>
       <c r="N23" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O23" t="n">
-        <v>82.85774021983079</v>
+        <v>85.80765544443935</v>
       </c>
       <c r="P23" t="n">
-        <v>35.86766847892869</v>
+        <v>38.38535287443136</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>22.63745721794069</v>
+        <v>24.15012740881892</v>
       </c>
       <c r="L24" t="n">
-        <v>77.2293004765236</v>
+        <v>79.2632722232554</v>
       </c>
       <c r="M24" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="N24" t="n">
-        <v>38.53561326167336</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O24" t="n">
-        <v>93.85698862027243</v>
+        <v>96.08579107143819</v>
       </c>
       <c r="P24" t="n">
-        <v>55.80015820536568</v>
+        <v>0.189302961710536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.015348749355269</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>16.18212933127415</v>
+        <v>18.40922329898598</v>
       </c>
       <c r="L26" t="n">
-        <v>57.34986928441418</v>
+        <v>60.1127762844805</v>
       </c>
       <c r="M26" t="n">
-        <v>95.80211046732771</v>
+        <v>98.87637686008716</v>
       </c>
       <c r="N26" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O26" t="n">
-        <v>82.85774021983079</v>
+        <v>85.80765544443935</v>
       </c>
       <c r="P26" t="n">
-        <v>35.86766847892869</v>
+        <v>38.38535287443136</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>22.63745721794069</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>77.2293004765236</v>
+        <v>79.2632722232554</v>
       </c>
       <c r="M27" t="n">
-        <v>94.33577146703905</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="N27" t="n">
-        <v>97.33069030851809</v>
+        <v>68.65335280060967</v>
       </c>
       <c r="O27" t="n">
-        <v>93.85698862027243</v>
+        <v>96.08579107143819</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>57.58896866712126</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.015348749355269</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>16.18212933127415</v>
+        <v>18.40922329898598</v>
       </c>
       <c r="L29" t="n">
-        <v>57.34986928441418</v>
+        <v>60.1127762844805</v>
       </c>
       <c r="M29" t="n">
-        <v>95.80211046732771</v>
+        <v>98.87637686008716</v>
       </c>
       <c r="N29" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O29" t="n">
-        <v>82.85774021983079</v>
+        <v>85.80765544443935</v>
       </c>
       <c r="P29" t="n">
-        <v>35.86766847892869</v>
+        <v>38.38535287443136</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>22.63745721794069</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>77.2293004765236</v>
+        <v>79.2632722232554</v>
       </c>
       <c r="M30" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="N30" t="n">
-        <v>94.33577146703907</v>
+        <v>68.65335280060967</v>
       </c>
       <c r="O30" t="n">
-        <v>93.85698862027243</v>
+        <v>96.08579107143819</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>57.58896866712126</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.015348749355269</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>16.18212933127415</v>
+        <v>18.40922329898598</v>
       </c>
       <c r="L32" t="n">
-        <v>57.34986928441418</v>
+        <v>60.1127762844805</v>
       </c>
       <c r="M32" t="n">
-        <v>95.80211046732771</v>
+        <v>98.87637686008716</v>
       </c>
       <c r="N32" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O32" t="n">
-        <v>82.85774021983079</v>
+        <v>85.80765544443935</v>
       </c>
       <c r="P32" t="n">
-        <v>35.86766847892869</v>
+        <v>38.38535287443136</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>22.63745721794069</v>
+        <v>24.15012740881892</v>
       </c>
       <c r="L33" t="n">
-        <v>77.2293004765236</v>
+        <v>79.2632722232554</v>
       </c>
       <c r="M33" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="N33" t="n">
-        <v>38.53561326167336</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O33" t="n">
-        <v>93.85698862027243</v>
+        <v>38.68612536602743</v>
       </c>
       <c r="P33" t="n">
-        <v>55.80015820536568</v>
+        <v>57.58896866712126</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.015348749355269</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>16.18212933127415</v>
+        <v>18.40922329898598</v>
       </c>
       <c r="L35" t="n">
-        <v>57.34986928441418</v>
+        <v>60.1127762844805</v>
       </c>
       <c r="M35" t="n">
-        <v>95.80211046732771</v>
+        <v>98.87637686008716</v>
       </c>
       <c r="N35" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O35" t="n">
-        <v>82.85774021983079</v>
+        <v>85.80765544443935</v>
       </c>
       <c r="P35" t="n">
-        <v>35.86766847892869</v>
+        <v>38.38535287443136</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>22.63745721794069</v>
+        <v>24.15012740881892</v>
       </c>
       <c r="L36" t="n">
-        <v>77.2293004765236</v>
+        <v>79.2632722232554</v>
       </c>
       <c r="M36" t="n">
-        <v>38.53561326167335</v>
+        <v>44.50322539179073</v>
       </c>
       <c r="N36" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O36" t="n">
-        <v>93.85698862027243</v>
+        <v>96.08579107143819</v>
       </c>
       <c r="P36" t="n">
-        <v>55.80015820536568</v>
+        <v>57.58896866712126</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.015348749355269</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>16.18212933127415</v>
+        <v>18.40922329898598</v>
       </c>
       <c r="L38" t="n">
-        <v>57.34986928441418</v>
+        <v>60.1127762844805</v>
       </c>
       <c r="M38" t="n">
-        <v>95.80211046732771</v>
+        <v>98.87637686008716</v>
       </c>
       <c r="N38" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O38" t="n">
-        <v>82.85774021983079</v>
+        <v>85.80765544443935</v>
       </c>
       <c r="P38" t="n">
-        <v>35.86766847892869</v>
+        <v>38.38535287443136</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>22.63745721794069</v>
+        <v>24.15012740881892</v>
       </c>
       <c r="L39" t="n">
-        <v>77.2293004765236</v>
+        <v>79.2632722232554</v>
       </c>
       <c r="M39" t="n">
-        <v>38.53561326167335</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="N39" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O39" t="n">
-        <v>93.85698862027243</v>
+        <v>38.68612536602743</v>
       </c>
       <c r="P39" t="n">
-        <v>55.80015820536568</v>
+        <v>57.58896866712126</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.015348749355269</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>16.18212933127415</v>
+        <v>18.40922329898598</v>
       </c>
       <c r="L41" t="n">
-        <v>57.34986928441418</v>
+        <v>60.1127762844805</v>
       </c>
       <c r="M41" t="n">
-        <v>95.80211046732771</v>
+        <v>98.87637686008716</v>
       </c>
       <c r="N41" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O41" t="n">
-        <v>82.85774021983079</v>
+        <v>85.80765544443935</v>
       </c>
       <c r="P41" t="n">
-        <v>35.86766847892869</v>
+        <v>38.38535287443136</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>22.63745721794069</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>77.2293004765236</v>
+        <v>79.2632722232554</v>
       </c>
       <c r="M42" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="N42" t="n">
-        <v>97.33069030851809</v>
+        <v>68.65335280060967</v>
       </c>
       <c r="O42" t="n">
-        <v>35.06191157342772</v>
+        <v>96.08579107143819</v>
       </c>
       <c r="P42" t="n">
-        <v>55.80015820536568</v>
+        <v>57.58896866712126</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.015348749355269</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>16.18212933127415</v>
+        <v>18.40922329898598</v>
       </c>
       <c r="L44" t="n">
-        <v>57.34986928441418</v>
+        <v>60.1127762844805</v>
       </c>
       <c r="M44" t="n">
-        <v>95.80211046732771</v>
+        <v>98.87637686008716</v>
       </c>
       <c r="N44" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O44" t="n">
-        <v>82.85774021983079</v>
+        <v>85.80765544443935</v>
       </c>
       <c r="P44" t="n">
-        <v>35.86766847892869</v>
+        <v>38.38535287443136</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>22.63745721794069</v>
+        <v>24.15012740881892</v>
       </c>
       <c r="L45" t="n">
-        <v>77.2293004765236</v>
+        <v>79.2632722232554</v>
       </c>
       <c r="M45" t="n">
-        <v>97.33069030851809</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="N45" t="n">
-        <v>38.53561326167336</v>
+        <v>101.9028910972015</v>
       </c>
       <c r="O45" t="n">
-        <v>93.85698862027243</v>
+        <v>96.08579107143819</v>
       </c>
       <c r="P45" t="n">
-        <v>55.80015820536568</v>
+        <v>0.189302961710536</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.015348749355269</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
